--- a/resources.xlsx
+++ b/resources.xlsx
@@ -9,20 +9,21 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="13650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="13650" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="atoms" sheetId="2" r:id="rId1"/>
     <sheet name="amino_acids" sheetId="1" r:id="rId2"/>
     <sheet name="losses" sheetId="3" r:id="rId3"/>
     <sheet name="ion_type_list" sheetId="4" r:id="rId4"/>
+    <sheet name="term" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="131">
   <si>
     <t>FullName</t>
   </si>
@@ -339,18 +340,6 @@
     <t>Electron</t>
   </si>
   <si>
-    <t>AminoAcid</t>
-  </si>
-  <si>
-    <t>Loss</t>
-  </si>
-  <si>
-    <t>Gain</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
     <t>H2O</t>
   </si>
   <si>
@@ -403,6 +392,30 @@
   </si>
   <si>
     <t>AverageMass</t>
+  </si>
+  <si>
+    <t>OH</t>
+  </si>
+  <si>
+    <t>NH2</t>
+  </si>
+  <si>
+    <t>CH3CO</t>
+  </si>
+  <si>
+    <t>NH2CO</t>
+  </si>
+  <si>
+    <t>C6H4CO</t>
+  </si>
+  <si>
+    <t>terminus</t>
+  </si>
+  <si>
+    <t>loss</t>
+  </si>
+  <si>
+    <t>term</t>
   </si>
 </sst>
 </file>
@@ -1211,8 +1224,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1225,10 +1238,10 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1434,19 +1447,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q21"/>
+  <dimension ref="A1:R21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+      <selection activeCell="C1" sqref="C1:C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="16" max="16" width="20.140625" customWidth="1"/>
-    <col min="17" max="17" width="15.28515625" customWidth="1"/>
+    <col min="16" max="16" width="7.7109375" customWidth="1"/>
+    <col min="17" max="17" width="6.5703125" customWidth="1"/>
+    <col min="18" max="18" width="6.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1493,13 +1507,16 @@
         <v>14</v>
       </c>
       <c r="P1" t="s">
-        <v>125</v>
+        <v>87</v>
       </c>
       <c r="Q1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+      <c r="R1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -1546,15 +1563,16 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <f>E2*atoms!C$2+F2*atoms!C$3+G2*atoms!C$4+H2*atoms!C$5+I2*atoms!C$6+J2*atoms!C$7+K2*atoms!C$8+L2*atoms!C$9+M2*atoms!C$10+N2*atoms!C$11+O2*atoms!C$12</f>
-        <v>71.037113779999999</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <f>E2*atoms!D$2+F2*atoms!D$3+G2*atoms!D$4+H2*atoms!D$5+I2*atoms!D$6+J2*atoms!D$7+K2*atoms!D$8+L2*atoms!D$9+M2*atoms!D$10+N2*atoms!D$11+O2*atoms!D$12</f>
-        <v>71.077930000000009</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -1601,15 +1619,16 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <f>E3*atoms!C$2+F3*atoms!C$3+G3*atoms!C$4+H3*atoms!C$5+I3*atoms!C$6+J3*atoms!C$7+K3*atoms!C$8+L3*atoms!C$9+M3*atoms!C$10+N3*atoms!C$11+O3*atoms!C$12</f>
-        <v>156.10111100399999</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <f>E3*atoms!D$2+F3*atoms!D$3+G3*atoms!D$4+H3*atoms!D$5+I3*atoms!D$6+J3*atoms!D$7+K3*atoms!D$8+L3*atoms!D$9+M3*atoms!D$10+N3*atoms!D$11+O3*atoms!D$12</f>
-        <v>156.18612000000002</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -1656,15 +1675,16 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <f>E4*atoms!C$2+F4*atoms!C$3+G4*atoms!C$4+H4*atoms!C$5+I4*atoms!C$6+J4*atoms!C$7+K4*atoms!C$8+L4*atoms!C$9+M4*atoms!C$10+N4*atoms!C$11+O4*atoms!C$12</f>
-        <v>126.042927432</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <f>E4*atoms!D$2+F4*atoms!D$3+G4*atoms!D$4+H4*atoms!D$5+I4*atoms!D$6+J4*atoms!D$7+K4*atoms!D$8+L4*atoms!D$9+M4*atoms!D$10+N4*atoms!D$11+O4*atoms!D$12</f>
-        <v>126.11336</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -1711,15 +1731,16 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <f>E5*atoms!C$2+F5*atoms!C$3+G5*atoms!C$4+H5*atoms!C$5+I5*atoms!C$6+J5*atoms!C$7+K5*atoms!C$8+L5*atoms!C$9+M5*atoms!C$10+N5*atoms!C$11+O5*atoms!C$12</f>
-        <v>127.02694301999999</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <f>E5*atoms!D$2+F5*atoms!D$3+G5*atoms!D$4+H5*atoms!D$5+I5*atoms!D$6+J5*atoms!D$7+K5*atoms!D$8+L5*atoms!D$9+M5*atoms!D$10+N5*atoms!D$11+O5*atoms!D$12</f>
-        <v>127.09792999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -1766,15 +1787,16 @@
         <v>0</v>
       </c>
       <c r="P6">
-        <f>E6*atoms!C$2+F6*atoms!C$3+G6*atoms!C$4+H6*atoms!C$5+I6*atoms!C$6+J6*atoms!C$7+K6*atoms!C$8+L6*atoms!C$9+M6*atoms!C$10+N6*atoms!C$11+O6*atoms!C$12</f>
-        <v>103.00918494999999</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <f>E6*atoms!D$2+F6*atoms!D$3+G6*atoms!D$4+H6*atoms!D$5+I6*atoms!D$6+J6*atoms!D$7+K6*atoms!D$8+L6*atoms!D$9+M6*atoms!D$10+N6*atoms!D$11+O6*atoms!D$12</f>
-        <v>103.14543</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>33</v>
       </c>
@@ -1821,15 +1843,16 @@
         <v>0</v>
       </c>
       <c r="P7">
-        <f>E7*atoms!C$2+F7*atoms!C$3+G7*atoms!C$4+H7*atoms!C$5+I7*atoms!C$6+J7*atoms!C$7+K7*atoms!C$8+L7*atoms!C$9+M7*atoms!C$10+N7*atoms!C$11+O7*atoms!C$12</f>
-        <v>129.04259308399998</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <f>E7*atoms!D$2+F7*atoms!D$3+G7*atoms!D$4+H7*atoms!D$5+I7*atoms!D$6+J7*atoms!D$7+K7*atoms!D$8+L7*atoms!D$9+M7*atoms!D$10+N7*atoms!D$11+O7*atoms!D$12</f>
-        <v>129.11387999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>37</v>
       </c>
@@ -1876,15 +1899,16 @@
         <v>0</v>
       </c>
       <c r="P8">
-        <f>E8*atoms!C$2+F8*atoms!C$3+G8*atoms!C$4+H8*atoms!C$5+I8*atoms!C$6+J8*atoms!C$7+K8*atoms!C$8+L8*atoms!C$9+M8*atoms!C$10+N8*atoms!C$11+O8*atoms!C$12</f>
-        <v>128.058577496</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <f>E8*atoms!D$2+F8*atoms!D$3+G8*atoms!D$4+H8*atoms!D$5+I8*atoms!D$6+J8*atoms!D$7+K8*atoms!D$8+L8*atoms!D$9+M8*atoms!D$10+N8*atoms!D$11+O8*atoms!D$12</f>
-        <v>128.12931</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>41</v>
       </c>
@@ -1931,15 +1955,16 @@
         <v>0</v>
       </c>
       <c r="P9">
-        <f>E9*atoms!C$2+F9*atoms!C$3+G9*atoms!C$4+H9*atoms!C$5+I9*atoms!C$6+J9*atoms!C$7+K9*atoms!C$8+L9*atoms!C$9+M9*atoms!C$10+N9*atoms!C$11+O9*atoms!C$12</f>
-        <v>57.021463716</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <f>E9*atoms!D$2+F9*atoms!D$3+G9*atoms!D$4+H9*atoms!D$5+I9*atoms!D$6+J9*atoms!D$7+K9*atoms!D$8+L9*atoms!D$9+M9*atoms!D$10+N9*atoms!D$11+O9*atoms!D$12</f>
-        <v>57.051380000000002</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>45</v>
       </c>
@@ -1986,15 +2011,16 @@
         <v>0</v>
       </c>
       <c r="P10">
-        <f>E10*atoms!C$2+F10*atoms!C$3+G10*atoms!C$4+H10*atoms!C$5+I10*atoms!C$6+J10*atoms!C$7+K10*atoms!C$8+L10*atoms!C$9+M10*atoms!C$10+N10*atoms!C$11+O10*atoms!C$12</f>
-        <v>137.05891184399999</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <f>E10*atoms!D$2+F10*atoms!D$3+G10*atoms!D$4+H10*atoms!D$5+I10*atoms!D$6+J10*atoms!D$7+K10*atoms!D$8+L10*atoms!D$9+M10*atoms!D$10+N10*atoms!D$11+O10*atoms!D$12</f>
-        <v>137.13939000000002</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>48</v>
       </c>
@@ -2041,15 +2067,16 @@
         <v>0</v>
       </c>
       <c r="P11">
-        <f>E11*atoms!C$2+F11*atoms!C$3+G11*atoms!C$4+H11*atoms!C$5+I11*atoms!C$6+J11*atoms!C$7+K11*atoms!C$8+L11*atoms!C$9+M11*atoms!C$10+N11*atoms!C$11+O11*atoms!C$12</f>
-        <v>113.084063972</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <f>E11*atoms!D$2+F11*atoms!D$3+G11*atoms!D$4+H11*atoms!D$5+I11*atoms!D$6+J11*atoms!D$7+K11*atoms!D$8+L11*atoms!D$9+M11*atoms!D$10+N11*atoms!D$11+O11*atoms!D$12</f>
-        <v>113.15758000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>51</v>
       </c>
@@ -2096,15 +2123,16 @@
         <v>0</v>
       </c>
       <c r="P12">
-        <f>E12*atoms!C$2+F12*atoms!C$3+G12*atoms!C$4+H12*atoms!C$5+I12*atoms!C$6+J12*atoms!C$7+K12*atoms!C$8+L12*atoms!C$9+M12*atoms!C$10+N12*atoms!C$11+O12*atoms!C$12</f>
-        <v>113.084063972</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <f>E12*atoms!D$2+F12*atoms!D$3+G12*atoms!D$4+H12*atoms!D$5+I12*atoms!D$6+J12*atoms!D$7+K12*atoms!D$8+L12*atoms!D$9+M12*atoms!D$10+N12*atoms!D$11+O12*atoms!D$12</f>
-        <v>113.15758000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>54</v>
       </c>
@@ -2151,15 +2179,16 @@
         <v>0</v>
       </c>
       <c r="P13">
-        <f>E13*atoms!C$2+F13*atoms!C$3+G13*atoms!C$4+H13*atoms!C$5+I13*atoms!C$6+J13*atoms!C$7+K13*atoms!C$8+L13*atoms!C$9+M13*atoms!C$10+N13*atoms!C$11+O13*atoms!C$12</f>
-        <v>128.09496300399999</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <f>E13*atoms!D$2+F13*atoms!D$3+G13*atoms!D$4+H13*atoms!D$5+I13*atoms!D$6+J13*atoms!D$7+K13*atoms!D$8+L13*atoms!D$9+M13*atoms!D$10+N13*atoms!D$11+O13*atoms!D$12</f>
-        <v>128.17241000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>58</v>
       </c>
@@ -2206,15 +2235,16 @@
         <v>0</v>
       </c>
       <c r="P14">
-        <f>E14*atoms!C$2+F14*atoms!C$3+G14*atoms!C$4+H14*atoms!C$5+I14*atoms!C$6+J14*atoms!C$7+K14*atoms!C$8+L14*atoms!C$9+M14*atoms!C$10+N14*atoms!C$11+O14*atoms!C$12</f>
-        <v>131.04048507799999</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <f>E14*atoms!D$2+F14*atoms!D$3+G14*atoms!D$4+H14*atoms!D$5+I14*atoms!D$6+J14*atoms!D$7+K14*atoms!D$8+L14*atoms!D$9+M14*atoms!D$10+N14*atoms!D$11+O14*atoms!D$12</f>
-        <v>131.19853000000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>62</v>
       </c>
@@ -2261,15 +2291,16 @@
         <v>0</v>
       </c>
       <c r="P15">
-        <f>E15*atoms!C$2+F15*atoms!C$3+G15*atoms!C$4+H15*atoms!C$5+I15*atoms!C$6+J15*atoms!C$7+K15*atoms!C$8+L15*atoms!C$9+M15*atoms!C$10+N15*atoms!C$11+O15*atoms!C$12</f>
-        <v>147.068413908</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <f>E15*atoms!D$2+F15*atoms!D$3+G15*atoms!D$4+H15*atoms!D$5+I15*atoms!D$6+J15*atoms!D$7+K15*atoms!D$8+L15*atoms!D$9+M15*atoms!D$10+N15*atoms!D$11+O15*atoms!D$12</f>
-        <v>147.17343</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>65</v>
       </c>
@@ -2316,15 +2347,16 @@
         <v>0</v>
       </c>
       <c r="P16">
-        <f>E16*atoms!C$2+F16*atoms!C$3+G16*atoms!C$4+H16*atoms!C$5+I16*atoms!C$6+J16*atoms!C$7+K16*atoms!C$8+L16*atoms!C$9+M16*atoms!C$10+N16*atoms!C$11+O16*atoms!C$12</f>
-        <v>97.052763843999998</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <f>E16*atoms!D$2+F16*atoms!D$3+G16*atoms!D$4+H16*atoms!D$5+I16*atoms!D$6+J16*atoms!D$7+K16*atoms!D$8+L16*atoms!D$9+M16*atoms!D$10+N16*atoms!D$11+O16*atoms!D$12</f>
-        <v>97.115079999999992</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>68</v>
       </c>
@@ -2371,15 +2403,16 @@
         <v>0</v>
       </c>
       <c r="P17">
-        <f>E17*atoms!C$2+F17*atoms!C$3+G17*atoms!C$4+H17*atoms!C$5+I17*atoms!C$6+J17*atoms!C$7+K17*atoms!C$8+L17*atoms!C$9+M17*atoms!C$10+N17*atoms!C$11+O17*atoms!C$12</f>
-        <v>87.032028400000002</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <f>E17*atoms!D$2+F17*atoms!D$3+G17*atoms!D$4+H17*atoms!D$5+I17*atoms!D$6+J17*atoms!D$7+K17*atoms!D$8+L17*atoms!D$9+M17*atoms!D$10+N17*atoms!D$11+O17*atoms!D$12</f>
-        <v>87.077330000000003</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>71</v>
       </c>
@@ -2426,15 +2459,16 @@
         <v>0</v>
       </c>
       <c r="P18">
-        <f>E18*atoms!C$2+F18*atoms!C$3+G18*atoms!C$4+H18*atoms!C$5+I18*atoms!C$6+J18*atoms!C$7+K18*atoms!C$8+L18*atoms!C$9+M18*atoms!C$10+N18*atoms!C$11+O18*atoms!C$12</f>
-        <v>101.047678464</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <f>E18*atoms!D$2+F18*atoms!D$3+G18*atoms!D$4+H18*atoms!D$5+I18*atoms!D$6+J18*atoms!D$7+K18*atoms!D$8+L18*atoms!D$9+M18*atoms!D$10+N18*atoms!D$11+O18*atoms!D$12</f>
-        <v>101.10388</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>75</v>
       </c>
@@ -2481,15 +2515,16 @@
         <v>0</v>
       </c>
       <c r="P19">
-        <f>E19*atoms!C$2+F19*atoms!C$3+G19*atoms!C$4+H19*atoms!C$5+I19*atoms!C$6+J19*atoms!C$7+K19*atoms!C$8+L19*atoms!C$9+M19*atoms!C$10+N19*atoms!C$11+O19*atoms!C$12</f>
-        <v>186.07931293999999</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <f>E19*atoms!D$2+F19*atoms!D$3+G19*atoms!D$4+H19*atoms!D$5+I19*atoms!D$6+J19*atoms!D$7+K19*atoms!D$8+L19*atoms!D$9+M19*atoms!D$10+N19*atoms!D$11+O19*atoms!D$12</f>
-        <v>186.20946000000001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>79</v>
       </c>
@@ -2536,15 +2571,16 @@
         <v>0</v>
       </c>
       <c r="P20">
-        <f>E20*atoms!C$2+F20*atoms!C$3+G20*atoms!C$4+H20*atoms!C$5+I20*atoms!C$6+J20*atoms!C$7+K20*atoms!C$8+L20*atoms!C$9+M20*atoms!C$10+N20*atoms!C$11+O20*atoms!C$12</f>
-        <v>163.063328528</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <f>E20*atoms!D$2+F20*atoms!D$3+G20*atoms!D$4+H20*atoms!D$5+I20*atoms!D$6+J20*atoms!D$7+K20*atoms!D$8+L20*atoms!D$9+M20*atoms!D$10+N20*atoms!D$11+O20*atoms!D$12</f>
-        <v>163.17282999999998</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>83</v>
       </c>
@@ -2591,12 +2627,13 @@
         <v>0</v>
       </c>
       <c r="P21">
-        <f>E21*atoms!C$2+F21*atoms!C$3+G21*atoms!C$4+H21*atoms!C$5+I21*atoms!C$6+J21*atoms!C$7+K21*atoms!C$8+L21*atoms!C$9+M21*atoms!C$10+N21*atoms!C$11+O21*atoms!C$12</f>
-        <v>99.068413907999997</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <f>E21*atoms!D$2+F21*atoms!D$3+G21*atoms!D$4+H21*atoms!D$5+I21*atoms!D$6+J21*atoms!D$7+K21*atoms!D$8+L21*atoms!D$9+M21*atoms!D$10+N21*atoms!D$11+O21*atoms!D$12</f>
-        <v>99.131029999999996</v>
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2607,95 +2644,368 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="14" max="14" width="7.7109375" customWidth="1"/>
+    <col min="15" max="15" width="6.5703125" customWidth="1"/>
+    <col min="16" max="16" width="6.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>105</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>106</v>
+        <v>129</v>
       </c>
       <c r="C1" t="s">
-        <v>107</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" t="s">
+        <v>87</v>
+      </c>
+      <c r="O1" t="s">
+        <v>88</v>
+      </c>
+      <c r="P1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>109</v>
-      </c>
-      <c r="D3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>109</v>
-      </c>
-      <c r="D4" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>39</v>
       </c>
       <c r="B5" t="s">
-        <v>110</v>
-      </c>
-      <c r="D5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>110</v>
-      </c>
-      <c r="D6" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>56</v>
       </c>
       <c r="B7" t="s">
-        <v>110</v>
-      </c>
-      <c r="D7" t="s">
-        <v>110</v>
+        <v>106</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2705,64 +3015,847 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:P15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="14" max="14" width="7.7109375" customWidth="1"/>
+    <col min="15" max="15" width="6.5703125" customWidth="1"/>
+    <col min="16" max="16" width="6.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" t="s">
+        <v>87</v>
+      </c>
+      <c r="O1" t="s">
+        <v>88</v>
+      </c>
+      <c r="P1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>-1</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>-1</v>
+      </c>
+      <c r="D4">
+        <v>-1</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>-1</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>-1</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>112</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>-1</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>114</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>-1</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>115</v>
+      </c>
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>-1</v>
+      </c>
+      <c r="E10">
+        <v>-1</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>116</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>-2</v>
+      </c>
+      <c r="E11">
+        <v>-1</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>117</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12">
+        <v>-1</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>-1</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>118</v>
+      </c>
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>119</v>
+      </c>
+      <c r="B14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>-1</v>
+      </c>
+      <c r="E14">
+        <v>-1</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>120</v>
+      </c>
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D13:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="B1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>9</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>10</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>11</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>12</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>13</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N1" t="s">
+        <v>87</v>
+      </c>
+      <c r="O1" t="s">
+        <v>88</v>
+      </c>
+      <c r="P1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -2788,25 +3881,37 @@
       <c r="L2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
+        <v>125</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
       </c>
       <c r="C3">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -2826,25 +3931,37 @@
       <c r="L3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>113</v>
-      </c>
-      <c r="B4">
-        <v>-1</v>
+        <v>126</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
       </c>
       <c r="C4">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E4">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -2864,25 +3981,37 @@
       <c r="L4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>114</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
+        <v>127</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
       </c>
       <c r="C5">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -2902,58 +4031,82 @@
       <c r="L5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>115</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
+        <v>123</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
       </c>
       <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>124</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
         <v>2</v>
       </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>116</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>-1</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
       <c r="E7">
         <v>1</v>
       </c>
@@ -2978,312 +4131,21 @@
       <c r="L7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>117</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>118</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>-1</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>119</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>-1</v>
-      </c>
-      <c r="D10">
-        <v>-1</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>120</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>-2</v>
-      </c>
-      <c r="D11">
-        <v>-1</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>121</v>
-      </c>
-      <c r="B12">
-        <v>-1</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>-1</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>122</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>123</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14">
-        <v>-1</v>
-      </c>
-      <c r="D14">
-        <v>-1</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>124</v>
-      </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15">
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/resources.xlsx
+++ b/resources.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="13650" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="13650" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="atoms" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="157">
   <si>
     <t>FullName</t>
   </si>
@@ -52,9 +52,6 @@
     <t>F</t>
   </si>
   <si>
-    <t>Si</t>
-  </si>
-  <si>
     <t>P</t>
   </si>
   <si>
@@ -313,9 +310,6 @@
     <t>Fluorine</t>
   </si>
   <si>
-    <t>Silicon</t>
-  </si>
-  <si>
     <t>Phosphorus</t>
   </si>
   <si>
@@ -340,12 +334,6 @@
     <t>Electron</t>
   </si>
   <si>
-    <t>H2O</t>
-  </si>
-  <si>
-    <t>NH3</t>
-  </si>
-  <si>
     <t>ion_type</t>
   </si>
   <si>
@@ -416,6 +404,96 @@
   </si>
   <si>
     <t>term</t>
+  </si>
+  <si>
+    <t>partial_sidechain</t>
+  </si>
+  <si>
+    <t>full_sidechain</t>
+  </si>
+  <si>
+    <t>Potassium</t>
+  </si>
+  <si>
+    <t>Deuterium</t>
+  </si>
+  <si>
+    <t>Fe</t>
+  </si>
+  <si>
+    <t>Cu</t>
+  </si>
+  <si>
+    <t>Se</t>
+  </si>
+  <si>
+    <t>Iron</t>
+  </si>
+  <si>
+    <t>Copper</t>
+  </si>
+  <si>
+    <t>Selenium</t>
+  </si>
+  <si>
+    <t>possible_charges</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>Selenocysteine</t>
+  </si>
+  <si>
+    <t>Sec</t>
+  </si>
+  <si>
+    <t>Phosphothreonine</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>Phosphoserine</t>
+  </si>
+  <si>
+    <t>ser</t>
+  </si>
+  <si>
+    <t>Phosphotyrosine</t>
+  </si>
+  <si>
+    <t>tyr</t>
+  </si>
+  <si>
+    <t>C9H10O5N</t>
+  </si>
+  <si>
+    <t>C3H5ONSe</t>
+  </si>
+  <si>
+    <t>C4H8O5NP</t>
+  </si>
+  <si>
+    <t>C3H6O5NP</t>
+  </si>
+  <si>
+    <t>-H2O</t>
+  </si>
+  <si>
+    <t>-H3PO4</t>
+  </si>
+  <si>
+    <t>-CO2</t>
+  </si>
+  <si>
+    <t>-NH3</t>
   </si>
 </sst>
 </file>
@@ -899,8 +977,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1222,31 +1301,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.42578125" customWidth="1"/>
+    <col min="3" max="3" width="22" customWidth="1"/>
+    <col min="4" max="4" width="27.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -1255,212 +1339,283 @@
         <v>12</v>
       </c>
       <c r="D2">
-        <v>12.0106</v>
+        <f>12 * 0.98893 + 13.0033548378 * 0.01107</f>
+        <v>12.011107138054447</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
       <c r="C3">
-        <v>1.007825032</v>
+        <v>1.00782503207</v>
       </c>
       <c r="D3">
-        <v>1.0079750000000001</v>
+        <f>1.00782503207 * 0.99985 + 2.0141017778 * 0.00015</f>
+        <v>1.0079759735818594</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
       </c>
       <c r="C4">
-        <v>14.003074</v>
+        <v>14.0030740048</v>
       </c>
       <c r="D4">
-        <v>14.006855</v>
+        <f>14.0030740048 * 0.996337 + 15.0001088982 * 0.003663</f>
+        <v>14.006726143614525</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
       </c>
       <c r="C5">
-        <v>15.994914619999999</v>
+        <v>15.994914619559999</v>
       </c>
       <c r="D5">
-        <v>15.9994</v>
+        <f>15.99491461956 * 0.99759 + 17.999161 * 0.002036 + 16.9991317 * 0.000374</f>
+        <v>15.999370842378658</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
       </c>
       <c r="C6">
-        <v>18.998403159999999</v>
+        <v>18.99840322</v>
       </c>
       <c r="D6">
-        <v>18.998403159999999</v>
+        <v>18.99840322</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
       </c>
       <c r="C7">
-        <v>27.97692653</v>
+        <v>30.973761629999998</v>
       </c>
       <c r="D7">
-        <v>28.085000000000001</v>
+        <v>30.973761629999998</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
       </c>
       <c r="C8">
-        <v>30.973762000000001</v>
+        <v>31.972071</v>
       </c>
       <c r="D8">
-        <v>30.973762000000001</v>
+        <f>31.972071 * 0.9502 + 33.9678669 * 0.0421 + 32.97145876 * 0.0075 + 35.96708076 * 0.0002</f>
+        <v>32.064388417542006</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
       </c>
       <c r="C9">
-        <v>31.97207117</v>
+        <v>34.968852679999998</v>
       </c>
       <c r="D9">
-        <v>32.067500000000003</v>
+        <f>34.96885268 * 0.75529 + 36.96590259 * 0.24471</f>
+        <v>35.4575507634761</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>99</v>
+        <v>129</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="C10">
-        <v>34.968852679999998</v>
+        <v>38.963706680000001</v>
       </c>
       <c r="D10">
-        <v>35.451500000000003</v>
+        <f>38.96370668 * 0.932581 + 39.96399848 * 0.000117 + 40.96182576 * 0.067302</f>
+        <v>39.098301124462758</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>100</v>
+        <v>134</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>131</v>
       </c>
       <c r="C11">
-        <v>78.918337609999995</v>
+        <v>55.934937499999997</v>
       </c>
       <c r="D11">
-        <v>79.903999999999996</v>
+        <f>55.9349375 * 0.059 + 55.9349375 * 0.9172 + 56.935394 * 0.021 + 57.9332756 * 0.0028</f>
+        <v>55.96154243318</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>101</v>
+        <v>135</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>132</v>
       </c>
       <c r="C12">
-        <v>126.9044719</v>
+        <v>62.9295975</v>
       </c>
       <c r="D12">
-        <v>126.90447</v>
+        <f>62.9295975 * 0.6917 + 64.9277895 * 0.3083</f>
+        <v>63.545640093599999</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>102</v>
+        <v>136</v>
       </c>
       <c r="B13" t="s">
-        <v>87</v>
+        <v>133</v>
       </c>
       <c r="C13">
-        <v>1.0072764519999999</v>
+        <v>73.922476560999996</v>
       </c>
       <c r="D13">
-        <v>1.00742642</v>
+        <f>73.922476561 * 0.009 + 75.9192136 * 0.091 + 76.919914 * 0.076 + 77.917309522 * 0.236 + 79.9173091 * 0.499 + 81.9166994 * 0.089</f>
+        <v>78.977672725341009</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B14" t="s">
-        <v>88</v>
+        <v>12</v>
       </c>
       <c r="C14">
-        <v>22.989769280000001</v>
+        <v>78.918337609999995</v>
       </c>
       <c r="D14">
-        <v>22.989769280000001</v>
+        <f>78.9183371 * 0.5069 + 80.9162906 * 0.4931</f>
+        <v>79.903527970850007</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B15" t="s">
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="C15">
+        <v>126.904473</v>
+      </c>
+      <c r="D15">
+        <v>126.904473</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>100</v>
+      </c>
+      <c r="B16" t="s">
+        <v>86</v>
+      </c>
+      <c r="C16">
+        <f>C3-C18</f>
+        <v>1.0072764520699999</v>
+      </c>
+      <c r="D16">
+        <f>D3-D18</f>
+        <v>1.0074273935818594</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>101</v>
+      </c>
+      <c r="B17" t="s">
+        <v>87</v>
+      </c>
+      <c r="C17">
+        <v>22.989769280899999</v>
+      </c>
+      <c r="D17">
+        <v>22.989769280899999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>102</v>
+      </c>
+      <c r="B18" t="s">
+        <v>88</v>
+      </c>
+      <c r="C18">
         <v>5.4858000000000001E-4</v>
       </c>
-      <c r="D15">
+      <c r="D18">
         <v>5.4858000000000001E-4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>130</v>
+      </c>
+      <c r="B19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19">
+        <v>2.0141017778000001</v>
+      </c>
+      <c r="D19">
+        <v>2.0141017778000001</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R21"/>
+  <dimension ref="A1:W25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C21"/>
+      <selection activeCell="F1" sqref="F1:W1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="4" max="4" width="12.42578125" customWidth="1"/>
     <col min="16" max="16" width="7.7109375" customWidth="1"/>
     <col min="17" max="17" width="6.5703125" customWidth="1"/>
     <col min="18" max="18" width="6.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1474,75 +1629,90 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
+        <v>55</v>
+      </c>
+      <c r="O1" t="s">
+        <v>131</v>
+      </c>
+      <c r="P1" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>133</v>
+      </c>
+      <c r="R1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="S1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="T1" t="s">
+        <v>86</v>
+      </c>
+      <c r="U1" t="s">
+        <v>87</v>
+      </c>
+      <c r="V1" t="s">
+        <v>88</v>
+      </c>
+      <c r="W1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>88</v>
-      </c>
-      <c r="R1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>15</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>16</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>17</v>
       </c>
-      <c r="D2" t="s">
-        <v>18</v>
-      </c>
       <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
         <v>3</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>5</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -1571,90 +1741,120 @@
       <c r="R2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
         <v>19</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>20</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>6</v>
+      </c>
+      <c r="G3">
+        <v>12</v>
+      </c>
+      <c r="H3">
+        <v>4</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>22</v>
       </c>
-      <c r="E3">
-        <v>6</v>
-      </c>
-      <c r="F3">
-        <v>12</v>
-      </c>
-      <c r="G3">
-        <v>4</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
         <v>23</v>
-      </c>
-      <c r="B4" t="s">
-        <v>24</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
         <v>5</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>6</v>
-      </c>
-      <c r="G4">
-        <v>2</v>
       </c>
       <c r="H4">
         <v>2</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -1683,35 +1883,50 @@
       <c r="R4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
         <v>26</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>27</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>28</v>
       </c>
-      <c r="D5" t="s">
-        <v>29</v>
-      </c>
       <c r="E5">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="F5">
         <v>5</v>
       </c>
       <c r="G5">
+        <v>5</v>
+      </c>
+      <c r="H5">
         <v>1</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>3</v>
       </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
       <c r="J5">
         <v>0</v>
       </c>
@@ -1739,34 +1954,49 @@
       <c r="R5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" t="s">
         <v>30</v>
-      </c>
-      <c r="B6" t="s">
-        <v>31</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>3</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>5</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
       </c>
       <c r="H6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -1795,90 +2025,120 @@
       <c r="R6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" t="s">
         <v>33</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>34</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>35</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7">
+        <v>-1</v>
+      </c>
+      <c r="F7">
+        <v>5</v>
+      </c>
+      <c r="G7">
+        <v>7</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>3</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>36</v>
       </c>
-      <c r="E7">
+      <c r="B8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
         <v>5</v>
       </c>
-      <c r="F7">
-        <v>7</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7">
-        <v>3</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-      <c r="R7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E8">
-        <v>5</v>
-      </c>
-      <c r="F8">
+      <c r="G8">
         <v>8</v>
-      </c>
-      <c r="G8">
-        <v>2</v>
       </c>
       <c r="H8">
         <v>2</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -1907,34 +2167,49 @@
       <c r="R8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" t="s">
         <v>41</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>42</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>43</v>
       </c>
-      <c r="D9" t="s">
-        <v>44</v>
-      </c>
       <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
         <v>2</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>3</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
       </c>
       <c r="H9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -1963,90 +2238,120 @@
       <c r="R9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" t="s">
         <v>45</v>
-      </c>
-      <c r="B10" t="s">
-        <v>46</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
       </c>
       <c r="D10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>6</v>
+      </c>
+      <c r="G10">
+        <v>7</v>
+      </c>
+      <c r="H10">
+        <v>3</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>47</v>
       </c>
-      <c r="E10">
+      <c r="B11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
         <v>6</v>
       </c>
-      <c r="F10">
-        <v>7</v>
-      </c>
-      <c r="G10">
-        <v>3</v>
-      </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
-      <c r="R10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>48</v>
-      </c>
-      <c r="B11" t="s">
-        <v>49</v>
-      </c>
-      <c r="C11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" t="s">
-        <v>50</v>
-      </c>
-      <c r="E11">
-        <v>6</v>
-      </c>
-      <c r="F11">
+      <c r="G11">
         <v>11</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
       </c>
       <c r="H11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -2075,34 +2380,49 @@
       <c r="R11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" t="s">
         <v>51</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>52</v>
       </c>
-      <c r="C12" t="s">
-        <v>53</v>
-      </c>
       <c r="D12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
         <v>6</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>11</v>
-      </c>
-      <c r="G12">
-        <v>1</v>
       </c>
       <c r="H12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -2131,90 +2451,120 @@
       <c r="R12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" t="s">
         <v>54</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>55</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>56</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>6</v>
+      </c>
+      <c r="G13">
+        <v>12</v>
+      </c>
+      <c r="H13">
+        <v>2</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>57</v>
       </c>
-      <c r="E13">
-        <v>6</v>
-      </c>
-      <c r="F13">
-        <v>12</v>
-      </c>
-      <c r="G13">
-        <v>2</v>
-      </c>
-      <c r="H13">
-        <v>1</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>0</v>
-      </c>
-      <c r="R13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="B14" t="s">
         <v>58</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>59</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>60</v>
       </c>
-      <c r="D14" t="s">
-        <v>61</v>
-      </c>
       <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
         <v>5</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>9</v>
-      </c>
-      <c r="G14">
-        <v>1</v>
       </c>
       <c r="H14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -2243,34 +2593,49 @@
       <c r="R14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" t="s">
         <v>62</v>
-      </c>
-      <c r="B15" t="s">
-        <v>63</v>
       </c>
       <c r="C15" t="s">
         <v>8</v>
       </c>
       <c r="D15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E15">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F15">
         <v>9</v>
       </c>
       <c r="G15">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="H15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -2299,34 +2664,49 @@
       <c r="R15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" t="s">
         <v>65</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" t="s">
         <v>66</v>
       </c>
-      <c r="C16" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" t="s">
-        <v>67</v>
-      </c>
       <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
         <v>5</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>7</v>
-      </c>
-      <c r="G16">
-        <v>1</v>
       </c>
       <c r="H16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -2355,146 +2735,191 @@
       <c r="R16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" t="s">
         <v>68</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" t="s">
         <v>69</v>
       </c>
-      <c r="C17" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>3</v>
+      </c>
+      <c r="G17">
+        <v>5</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>2</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>145</v>
+      </c>
+      <c r="B18" t="s">
+        <v>146</v>
+      </c>
+      <c r="C18" t="s">
+        <v>138</v>
+      </c>
+      <c r="D18" t="s">
+        <v>152</v>
+      </c>
+      <c r="E18">
+        <v>-1</v>
+      </c>
+      <c r="F18">
+        <v>3</v>
+      </c>
+      <c r="G18">
+        <v>6</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>5</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>70</v>
       </c>
-      <c r="E17">
-        <v>3</v>
-      </c>
-      <c r="F17">
-        <v>5</v>
-      </c>
-      <c r="G17">
-        <v>1</v>
-      </c>
-      <c r="H17">
-        <v>2</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
-      <c r="N17">
-        <v>0</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>0</v>
-      </c>
-      <c r="R17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="B19" t="s">
         <v>71</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C19" t="s">
         <v>72</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D19" t="s">
         <v>73</v>
       </c>
-      <c r="D18" t="s">
-        <v>74</v>
-      </c>
-      <c r="E18">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
         <v>4</v>
       </c>
-      <c r="F18">
+      <c r="G19">
         <v>7</v>
-      </c>
-      <c r="G18">
-        <v>1</v>
-      </c>
-      <c r="H18">
-        <v>2</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
-      <c r="N18">
-        <v>0</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>0</v>
-      </c>
-      <c r="R18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>75</v>
-      </c>
-      <c r="B19" t="s">
-        <v>76</v>
-      </c>
-      <c r="C19" t="s">
-        <v>77</v>
-      </c>
-      <c r="D19" t="s">
-        <v>78</v>
-      </c>
-      <c r="E19">
-        <v>11</v>
-      </c>
-      <c r="F19">
-        <v>10</v>
-      </c>
-      <c r="G19">
-        <v>2</v>
       </c>
       <c r="H19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -2523,40 +2948,55 @@
       <c r="R19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>79</v>
+        <v>143</v>
       </c>
       <c r="B20" t="s">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="C20" t="s">
-        <v>81</v>
+        <v>139</v>
       </c>
       <c r="D20" t="s">
-        <v>82</v>
+        <v>151</v>
       </c>
       <c r="E20">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="F20">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G20">
+        <v>8</v>
+      </c>
+      <c r="H20">
         <v>1</v>
       </c>
-      <c r="H20">
-        <v>2</v>
-      </c>
       <c r="I20">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -2579,34 +3019,49 @@
       <c r="R20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <v>0</v>
+      </c>
+      <c r="W20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
       <c r="B21" t="s">
-        <v>84</v>
+        <v>142</v>
       </c>
       <c r="C21" t="s">
-        <v>85</v>
+        <v>140</v>
       </c>
       <c r="D21" t="s">
-        <v>86</v>
+        <v>150</v>
       </c>
       <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>3</v>
+      </c>
+      <c r="G21">
         <v>5</v>
-      </c>
-      <c r="F21">
-        <v>9</v>
-      </c>
-      <c r="G21">
-        <v>1</v>
       </c>
       <c r="H21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -2630,9 +3085,308 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <v>0</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>74</v>
+      </c>
+      <c r="B22" t="s">
+        <v>75</v>
+      </c>
+      <c r="C22" t="s">
+        <v>76</v>
+      </c>
+      <c r="D22" t="s">
+        <v>77</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>11</v>
+      </c>
+      <c r="G22">
+        <v>10</v>
+      </c>
+      <c r="H22">
+        <v>2</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <v>0</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>78</v>
+      </c>
+      <c r="B23" t="s">
+        <v>79</v>
+      </c>
+      <c r="C23" t="s">
+        <v>80</v>
+      </c>
+      <c r="D23" t="s">
+        <v>81</v>
+      </c>
+      <c r="E23">
+        <v>-1</v>
+      </c>
+      <c r="F23">
+        <v>9</v>
+      </c>
+      <c r="G23">
+        <v>9</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>2</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>147</v>
+      </c>
+      <c r="B24" t="s">
+        <v>148</v>
+      </c>
+      <c r="C24" t="s">
+        <v>109</v>
+      </c>
+      <c r="D24" t="s">
+        <v>149</v>
+      </c>
+      <c r="E24">
+        <v>-1</v>
+      </c>
+      <c r="F24">
+        <v>9</v>
+      </c>
+      <c r="G24">
+        <v>10</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>5</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <v>0</v>
+      </c>
+      <c r="V24">
+        <v>0</v>
+      </c>
+      <c r="W24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>82</v>
+      </c>
+      <c r="B25" t="s">
+        <v>83</v>
+      </c>
+      <c r="C25" t="s">
+        <v>84</v>
+      </c>
+      <c r="D25" t="s">
+        <v>85</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>5</v>
+      </c>
+      <c r="G25">
+        <v>9</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>0</v>
+      </c>
+      <c r="T25">
+        <v>0</v>
+      </c>
+      <c r="U25">
+        <v>0</v>
+      </c>
+      <c r="V25">
+        <v>0</v>
+      </c>
+      <c r="W25">
         <v>0</v>
       </c>
     </row>
@@ -2644,26 +3398,28 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P7"/>
+  <dimension ref="A1:T62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="14" max="14" width="7.7109375" customWidth="1"/>
-    <col min="15" max="15" width="6.5703125" customWidth="1"/>
-    <col min="16" max="16" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" customWidth="1"/>
+    <col min="13" max="13" width="7.7109375" customWidth="1"/>
+    <col min="14" max="14" width="6.5703125" customWidth="1"/>
+    <col min="15" max="15" width="6.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C1" t="s">
         <v>4</v>
@@ -2690,42 +3446,54 @@
         <v>11</v>
       </c>
       <c r="K1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1" t="s">
+        <v>131</v>
+      </c>
+      <c r="M1" t="s">
+        <v>132</v>
+      </c>
+      <c r="N1" t="s">
+        <v>133</v>
+      </c>
+      <c r="O1" t="s">
         <v>12</v>
       </c>
-      <c r="L1" t="s">
+      <c r="P1" t="s">
         <v>13</v>
       </c>
-      <c r="M1" t="s">
-        <v>14</v>
-      </c>
-      <c r="N1" t="s">
+      <c r="Q1" t="s">
+        <v>86</v>
+      </c>
+      <c r="R1" t="s">
         <v>87</v>
       </c>
-      <c r="O1" t="s">
+      <c r="S1" t="s">
         <v>88</v>
       </c>
-      <c r="P1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="T1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" t="s">
-        <v>105</v>
+        <v>27</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>153</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -2757,25 +3525,37 @@
       <c r="P2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3" t="s">
-        <v>105</v>
+        <v>27</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>155</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -2807,25 +3587,37 @@
       <c r="P3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" t="s">
-        <v>105</v>
+        <v>34</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>153</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -2857,25 +3649,37 @@
       <c r="P4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5" t="s">
-        <v>106</v>
+        <v>34</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>155</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -2907,72 +3711,96 @@
       <c r="P5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>-3</v>
+      </c>
+      <c r="E6">
+        <v>-1</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B6" t="s">
-        <v>106</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>3</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>56</v>
-      </c>
-      <c r="B7" t="s">
-        <v>106</v>
+      <c r="B7" s="1" t="s">
+        <v>156</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3005,35 +3833,3458 @@
         <v>0</v>
       </c>
       <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>-3</v>
+      </c>
+      <c r="E8">
+        <v>-1</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>-3</v>
+      </c>
+      <c r="E9">
+        <v>-1</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>-2</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>-1</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>138</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>-3</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>-4</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>-1</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>72</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>-2</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>-1</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>139</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>-3</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>-4</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>-1</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>109</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>-3</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>-4</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>-1</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" t="s">
+        <v>127</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>-1</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>-1</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" t="s">
+        <v>127</v>
+      </c>
+      <c r="C16">
+        <v>-1</v>
+      </c>
+      <c r="D16">
+        <v>-1</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>-2</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" t="s">
+        <v>127</v>
+      </c>
+      <c r="C17">
+        <v>-2</v>
+      </c>
+      <c r="D17">
+        <v>-3</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>-2</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" t="s">
+        <v>127</v>
+      </c>
+      <c r="C18">
+        <v>-6</v>
+      </c>
+      <c r="D18">
+        <v>-5</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" t="s">
+        <v>127</v>
+      </c>
+      <c r="C19">
+        <v>-3</v>
+      </c>
+      <c r="D19">
+        <v>-3</v>
+      </c>
+      <c r="E19">
+        <v>-2</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" t="s">
+        <v>127</v>
+      </c>
+      <c r="C20">
+        <v>-2</v>
+      </c>
+      <c r="D20">
+        <v>-5</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" t="s">
+        <v>127</v>
+      </c>
+      <c r="C21">
+        <v>-1</v>
+      </c>
+      <c r="D21">
+        <v>-3</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22" t="s">
+        <v>127</v>
+      </c>
+      <c r="C22">
+        <v>-3</v>
+      </c>
+      <c r="D22">
+        <v>-8</v>
+      </c>
+      <c r="E22">
+        <v>-1</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" t="s">
+        <v>127</v>
+      </c>
+      <c r="C23">
+        <v>-3</v>
+      </c>
+      <c r="D23">
+        <v>-7</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>59</v>
+      </c>
+      <c r="B24" t="s">
+        <v>127</v>
+      </c>
+      <c r="C24">
+        <v>-2</v>
+      </c>
+      <c r="D24">
+        <v>-5</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>-1</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" t="s">
+        <v>127</v>
+      </c>
+      <c r="C25">
+        <v>-1</v>
+      </c>
+      <c r="D25">
+        <v>-2</v>
+      </c>
+      <c r="E25">
+        <v>-1</v>
+      </c>
+      <c r="F25">
+        <v>-1</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>0</v>
+      </c>
+      <c r="T25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" t="s">
+        <v>127</v>
+      </c>
+      <c r="C26">
+        <v>-2</v>
+      </c>
+      <c r="D26">
+        <v>-3</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <v>0</v>
+      </c>
+      <c r="S26">
+        <v>0</v>
+      </c>
+      <c r="T26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" t="s">
+        <v>127</v>
+      </c>
+      <c r="C27">
+        <v>-2</v>
+      </c>
+      <c r="D27">
+        <v>-4</v>
+      </c>
+      <c r="E27">
+        <v>-1</v>
+      </c>
+      <c r="F27">
+        <v>-1</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>0</v>
+      </c>
+      <c r="R27">
+        <v>0</v>
+      </c>
+      <c r="S27">
+        <v>0</v>
+      </c>
+      <c r="T27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>20</v>
+      </c>
+      <c r="B28" t="s">
+        <v>127</v>
+      </c>
+      <c r="C28">
+        <v>-3</v>
+      </c>
+      <c r="D28">
+        <v>-8</v>
+      </c>
+      <c r="E28">
+        <v>-3</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>0</v>
+      </c>
+      <c r="R28">
+        <v>0</v>
+      </c>
+      <c r="S28">
+        <v>0</v>
+      </c>
+      <c r="T28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" t="s">
+        <v>127</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>-1</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>-1</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>0</v>
+      </c>
+      <c r="R29">
+        <v>0</v>
+      </c>
+      <c r="S29">
+        <v>0</v>
+      </c>
+      <c r="T29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>138</v>
+      </c>
+      <c r="B30" t="s">
+        <v>127</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>-2</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>-4</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>-1</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>0</v>
+      </c>
+      <c r="R30">
+        <v>0</v>
+      </c>
+      <c r="S30">
+        <v>0</v>
+      </c>
+      <c r="T30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>72</v>
+      </c>
+      <c r="B31" t="s">
+        <v>127</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>-1</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>-1</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>0</v>
+      </c>
+      <c r="R31">
+        <v>0</v>
+      </c>
+      <c r="S31">
+        <v>0</v>
+      </c>
+      <c r="T31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>72</v>
+      </c>
+      <c r="B32" t="s">
+        <v>127</v>
+      </c>
+      <c r="C32">
+        <v>-1</v>
+      </c>
+      <c r="D32">
+        <v>-3</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>0</v>
+      </c>
+      <c r="R32">
+        <v>0</v>
+      </c>
+      <c r="S32">
+        <v>0</v>
+      </c>
+      <c r="T32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>139</v>
+      </c>
+      <c r="B33" t="s">
+        <v>127</v>
+      </c>
+      <c r="C33">
+        <v>-1</v>
+      </c>
+      <c r="D33">
+        <v>-3</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>0</v>
+      </c>
+      <c r="R33">
+        <v>0</v>
+      </c>
+      <c r="S33">
+        <v>0</v>
+      </c>
+      <c r="T33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>139</v>
+      </c>
+      <c r="B34" t="s">
+        <v>127</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>-2</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>-4</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>-1</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>0</v>
+      </c>
+      <c r="R34">
+        <v>0</v>
+      </c>
+      <c r="S34">
+        <v>0</v>
+      </c>
+      <c r="T34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>140</v>
+      </c>
+      <c r="B35" t="s">
+        <v>127</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>-1</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <v>-1</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>0</v>
+      </c>
+      <c r="R35">
+        <v>0</v>
+      </c>
+      <c r="S35">
+        <v>0</v>
+      </c>
+      <c r="T35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>84</v>
+      </c>
+      <c r="B36" t="s">
+        <v>127</v>
+      </c>
+      <c r="C36">
+        <v>-1</v>
+      </c>
+      <c r="D36">
+        <v>-3</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>0</v>
+      </c>
+      <c r="R36">
+        <v>0</v>
+      </c>
+      <c r="S36">
+        <v>0</v>
+      </c>
+      <c r="T36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>76</v>
+      </c>
+      <c r="B37" t="s">
+        <v>127</v>
+      </c>
+      <c r="C37">
+        <v>-8</v>
+      </c>
+      <c r="D37">
+        <v>-6</v>
+      </c>
+      <c r="E37">
+        <v>-1</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>0</v>
+      </c>
+      <c r="R37">
+        <v>0</v>
+      </c>
+      <c r="S37">
+        <v>0</v>
+      </c>
+      <c r="T37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>80</v>
+      </c>
+      <c r="B38" t="s">
+        <v>127</v>
+      </c>
+      <c r="C38">
+        <v>-6</v>
+      </c>
+      <c r="D38">
+        <v>-5</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>-1</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>0</v>
+      </c>
+      <c r="R38">
+        <v>0</v>
+      </c>
+      <c r="S38">
+        <v>0</v>
+      </c>
+      <c r="T38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>109</v>
+      </c>
+      <c r="B39" t="s">
+        <v>127</v>
+      </c>
+      <c r="C39">
+        <v>-6</v>
+      </c>
+      <c r="D39">
+        <v>-6</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>-4</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>-1</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <v>0</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>0</v>
+      </c>
+      <c r="R39">
+        <v>0</v>
+      </c>
+      <c r="S39">
+        <v>0</v>
+      </c>
+      <c r="T39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>16</v>
+      </c>
+      <c r="B40" t="s">
+        <v>128</v>
+      </c>
+      <c r="C40">
+        <v>-1</v>
+      </c>
+      <c r="D40">
+        <v>-3</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <v>0</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>0</v>
+      </c>
+      <c r="R40">
+        <v>0</v>
+      </c>
+      <c r="S40">
+        <v>0</v>
+      </c>
+      <c r="T40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>4</v>
+      </c>
+      <c r="B41" t="s">
+        <v>128</v>
+      </c>
+      <c r="C41">
+        <v>-1</v>
+      </c>
+      <c r="D41">
+        <v>-3</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>-1</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41">
+        <v>0</v>
+      </c>
+      <c r="N41">
+        <v>0</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>0</v>
+      </c>
+      <c r="R41">
+        <v>0</v>
+      </c>
+      <c r="S41">
+        <v>0</v>
+      </c>
+      <c r="T41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>27</v>
+      </c>
+      <c r="B42" t="s">
+        <v>128</v>
+      </c>
+      <c r="C42">
+        <v>-2</v>
+      </c>
+      <c r="D42">
+        <v>-3</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>-2</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>0</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>0</v>
+      </c>
+      <c r="R42">
+        <v>0</v>
+      </c>
+      <c r="S42">
+        <v>0</v>
+      </c>
+      <c r="T42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>34</v>
+      </c>
+      <c r="B43" t="s">
+        <v>128</v>
+      </c>
+      <c r="C43">
+        <v>-3</v>
+      </c>
+      <c r="D43">
+        <v>-5</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>-2</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>0</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>0</v>
+      </c>
+      <c r="R43">
+        <v>0</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>8</v>
+      </c>
+      <c r="B44" t="s">
+        <v>128</v>
+      </c>
+      <c r="C44">
+        <v>-7</v>
+      </c>
+      <c r="D44">
+        <v>-7</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>0</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>0</v>
+      </c>
+      <c r="R44">
+        <v>0</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>5</v>
+      </c>
+      <c r="B45" t="s">
+        <v>128</v>
+      </c>
+      <c r="C45">
+        <v>-4</v>
+      </c>
+      <c r="D45">
+        <v>-5</v>
+      </c>
+      <c r="E45">
+        <v>-2</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>0</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>0</v>
+      </c>
+      <c r="R45">
+        <v>0</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>13</v>
+      </c>
+      <c r="B46" t="s">
+        <v>128</v>
+      </c>
+      <c r="C46">
+        <v>-4</v>
+      </c>
+      <c r="D46">
+        <v>-9</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>0</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>0</v>
+      </c>
+      <c r="R46">
+        <v>0</v>
+      </c>
+      <c r="S46">
+        <v>0</v>
+      </c>
+      <c r="T46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>55</v>
+      </c>
+      <c r="B47" t="s">
+        <v>128</v>
+      </c>
+      <c r="C47">
+        <v>-4</v>
+      </c>
+      <c r="D47">
+        <v>-10</v>
+      </c>
+      <c r="E47">
+        <v>-1</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>0</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47">
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <v>0</v>
+      </c>
+      <c r="R47">
+        <v>0</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>52</v>
+      </c>
+      <c r="B48" t="s">
+        <v>128</v>
+      </c>
+      <c r="C48">
+        <v>-4</v>
+      </c>
+      <c r="D48">
+        <v>-9</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>0</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+      <c r="P48">
+        <v>0</v>
+      </c>
+      <c r="Q48">
+        <v>0</v>
+      </c>
+      <c r="R48">
+        <v>0</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>59</v>
+      </c>
+      <c r="B49" t="s">
+        <v>128</v>
+      </c>
+      <c r="C49">
+        <v>-3</v>
+      </c>
+      <c r="D49">
+        <v>-7</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>-1</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>0</v>
+      </c>
+      <c r="O49">
+        <v>0</v>
+      </c>
+      <c r="P49">
+        <v>0</v>
+      </c>
+      <c r="Q49">
+        <v>0</v>
+      </c>
+      <c r="R49">
+        <v>0</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>6</v>
+      </c>
+      <c r="B50" t="s">
+        <v>128</v>
+      </c>
+      <c r="C50">
+        <v>-2</v>
+      </c>
+      <c r="D50">
+        <v>-4</v>
+      </c>
+      <c r="E50">
+        <v>-1</v>
+      </c>
+      <c r="F50">
+        <v>-1</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>0</v>
+      </c>
+      <c r="O50">
+        <v>0</v>
+      </c>
+      <c r="P50">
+        <v>0</v>
+      </c>
+      <c r="Q50">
+        <v>0</v>
+      </c>
+      <c r="R50">
+        <v>0</v>
+      </c>
+      <c r="S50">
+        <v>0</v>
+      </c>
+      <c r="T50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>9</v>
+      </c>
+      <c r="B51" t="s">
+        <v>128</v>
+      </c>
+      <c r="C51">
+        <v>-3</v>
+      </c>
+      <c r="D51">
+        <v>-5</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>0</v>
+      </c>
+      <c r="O51">
+        <v>0</v>
+      </c>
+      <c r="P51">
+        <v>0</v>
+      </c>
+      <c r="Q51">
+        <v>0</v>
+      </c>
+      <c r="R51">
+        <v>0</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>38</v>
+      </c>
+      <c r="B52" t="s">
+        <v>128</v>
+      </c>
+      <c r="C52">
+        <v>-3</v>
+      </c>
+      <c r="D52">
+        <v>-6</v>
+      </c>
+      <c r="E52">
+        <v>-1</v>
+      </c>
+      <c r="F52">
+        <v>-1</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>0</v>
+      </c>
+      <c r="O52">
+        <v>0</v>
+      </c>
+      <c r="P52">
+        <v>0</v>
+      </c>
+      <c r="Q52">
+        <v>0</v>
+      </c>
+      <c r="R52">
+        <v>0</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>20</v>
+      </c>
+      <c r="B53" t="s">
+        <v>128</v>
+      </c>
+      <c r="C53">
+        <v>-4</v>
+      </c>
+      <c r="D53">
+        <v>-10</v>
+      </c>
+      <c r="E53">
+        <v>-3</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>0</v>
+      </c>
+      <c r="O53">
+        <v>0</v>
+      </c>
+      <c r="P53">
+        <v>0</v>
+      </c>
+      <c r="Q53">
+        <v>0</v>
+      </c>
+      <c r="R53">
+        <v>0</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>10</v>
+      </c>
+      <c r="B54" t="s">
+        <v>128</v>
+      </c>
+      <c r="C54">
+        <v>-1</v>
+      </c>
+      <c r="D54">
+        <v>-3</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>-1</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>0</v>
+      </c>
+      <c r="O54">
+        <v>0</v>
+      </c>
+      <c r="P54">
+        <v>0</v>
+      </c>
+      <c r="Q54">
+        <v>0</v>
+      </c>
+      <c r="R54">
+        <v>0</v>
+      </c>
+      <c r="S54">
+        <v>0</v>
+      </c>
+      <c r="T54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>138</v>
+      </c>
+      <c r="B55" t="s">
+        <v>128</v>
+      </c>
+      <c r="C55">
+        <v>-1</v>
+      </c>
+      <c r="D55">
+        <v>-4</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>-1</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>-1</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>0</v>
+      </c>
+      <c r="O55">
+        <v>0</v>
+      </c>
+      <c r="P55">
+        <v>0</v>
+      </c>
+      <c r="Q55">
+        <v>0</v>
+      </c>
+      <c r="R55">
+        <v>0</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>72</v>
+      </c>
+      <c r="B56" t="s">
+        <v>128</v>
+      </c>
+      <c r="C56">
+        <v>-2</v>
+      </c>
+      <c r="D56">
+        <v>-5</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>-1</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>0</v>
+      </c>
+      <c r="O56">
+        <v>0</v>
+      </c>
+      <c r="P56">
+        <v>0</v>
+      </c>
+      <c r="Q56">
+        <v>0</v>
+      </c>
+      <c r="R56">
+        <v>0</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>139</v>
+      </c>
+      <c r="B57" t="s">
+        <v>128</v>
+      </c>
+      <c r="C57">
+        <v>-2</v>
+      </c>
+      <c r="D57">
+        <v>-6</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>-4</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>-1</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>0</v>
+      </c>
+      <c r="O57">
+        <v>0</v>
+      </c>
+      <c r="P57">
+        <v>0</v>
+      </c>
+      <c r="Q57">
+        <v>0</v>
+      </c>
+      <c r="R57">
+        <v>0</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>140</v>
+      </c>
+      <c r="B58" t="s">
+        <v>128</v>
+      </c>
+      <c r="C58">
+        <v>-1</v>
+      </c>
+      <c r="D58">
+        <v>-3</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>-1</v>
+      </c>
+      <c r="O58">
+        <v>0</v>
+      </c>
+      <c r="P58">
+        <v>0</v>
+      </c>
+      <c r="Q58">
+        <v>0</v>
+      </c>
+      <c r="R58">
+        <v>0</v>
+      </c>
+      <c r="S58">
+        <v>0</v>
+      </c>
+      <c r="T58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>84</v>
+      </c>
+      <c r="B59" t="s">
+        <v>128</v>
+      </c>
+      <c r="C59">
+        <v>-3</v>
+      </c>
+      <c r="D59">
+        <v>-7</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>0</v>
+      </c>
+      <c r="O59">
+        <v>0</v>
+      </c>
+      <c r="P59">
+        <v>0</v>
+      </c>
+      <c r="Q59">
+        <v>0</v>
+      </c>
+      <c r="R59">
+        <v>0</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>76</v>
+      </c>
+      <c r="B60" t="s">
+        <v>128</v>
+      </c>
+      <c r="C60">
+        <v>-9</v>
+      </c>
+      <c r="D60">
+        <v>-8</v>
+      </c>
+      <c r="E60">
+        <v>-1</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>0</v>
+      </c>
+      <c r="O60">
+        <v>0</v>
+      </c>
+      <c r="P60">
+        <v>0</v>
+      </c>
+      <c r="Q60">
+        <v>0</v>
+      </c>
+      <c r="R60">
+        <v>0</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>80</v>
+      </c>
+      <c r="B61" t="s">
+        <v>128</v>
+      </c>
+      <c r="C61">
+        <v>-7</v>
+      </c>
+      <c r="D61">
+        <v>-7</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>-1</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>0</v>
+      </c>
+      <c r="O61">
+        <v>0</v>
+      </c>
+      <c r="P61">
+        <v>0</v>
+      </c>
+      <c r="Q61">
+        <v>0</v>
+      </c>
+      <c r="R61">
+        <v>0</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>109</v>
+      </c>
+      <c r="B62" t="s">
+        <v>128</v>
+      </c>
+      <c r="C62">
+        <v>-7</v>
+      </c>
+      <c r="D62">
+        <v>-8</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>-4</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>-1</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>0</v>
+      </c>
+      <c r="O62">
+        <v>0</v>
+      </c>
+      <c r="P62">
+        <v>0</v>
+      </c>
+      <c r="Q62">
+        <v>0</v>
+      </c>
+      <c r="R62">
+        <v>0</v>
+      </c>
+      <c r="S62">
+        <v>0</v>
+      </c>
+      <c r="T62">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P15"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="14" max="14" width="7.7109375" customWidth="1"/>
-    <col min="15" max="15" width="6.5703125" customWidth="1"/>
-    <col min="16" max="16" width="6.140625" customWidth="1"/>
+    <col min="13" max="13" width="7.7109375" customWidth="1"/>
+    <col min="14" max="14" width="6.5703125" customWidth="1"/>
+    <col min="15" max="15" width="6.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C1" t="s">
         <v>4</v>
@@ -3060,30 +7311,42 @@
         <v>11</v>
       </c>
       <c r="K1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1" t="s">
+        <v>131</v>
+      </c>
+      <c r="M1" t="s">
+        <v>132</v>
+      </c>
+      <c r="N1" t="s">
+        <v>133</v>
+      </c>
+      <c r="O1" t="s">
         <v>12</v>
       </c>
-      <c r="L1" t="s">
+      <c r="P1" t="s">
         <v>13</v>
       </c>
-      <c r="M1" t="s">
-        <v>14</v>
-      </c>
-      <c r="N1" t="s">
+      <c r="Q1" t="s">
+        <v>86</v>
+      </c>
+      <c r="R1" t="s">
         <v>87</v>
       </c>
-      <c r="O1" t="s">
+      <c r="S1" t="s">
         <v>88</v>
       </c>
-      <c r="P1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="T1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -3127,13 +7390,25 @@
       <c r="P2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -3177,10 +7452,22 @@
       <c r="P3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -3227,10 +7514,22 @@
       <c r="P4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
@@ -3277,10 +7576,22 @@
       <c r="P5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
@@ -3327,10 +7638,22 @@
       <c r="P6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
@@ -3377,10 +7700,22 @@
       <c r="P7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
@@ -3427,10 +7762,22 @@
       <c r="P8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B9" t="s">
         <v>4</v>
@@ -3477,10 +7824,22 @@
       <c r="P9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B10" t="s">
         <v>4</v>
@@ -3527,10 +7886,22 @@
       <c r="P10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B11" t="s">
         <v>4</v>
@@ -3577,10 +7948,22 @@
       <c r="P11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
@@ -3627,10 +8010,22 @@
       <c r="P12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B13" t="s">
         <v>4</v>
@@ -3677,10 +8072,22 @@
       <c r="P13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B14" t="s">
         <v>4</v>
@@ -3727,10 +8134,22 @@
       <c r="P14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B15" t="s">
         <v>6</v>
@@ -3777,6 +8196,30 @@
       <c r="P15">
         <v>0</v>
       </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3786,20 +8229,20 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P7"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D13:D14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C1" t="s">
         <v>4</v>
@@ -3826,25 +8269,37 @@
         <v>11</v>
       </c>
       <c r="K1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1" t="s">
+        <v>131</v>
+      </c>
+      <c r="M1" t="s">
+        <v>132</v>
+      </c>
+      <c r="N1" t="s">
+        <v>133</v>
+      </c>
+      <c r="O1" t="s">
         <v>12</v>
       </c>
-      <c r="L1" t="s">
+      <c r="P1" t="s">
         <v>13</v>
       </c>
-      <c r="M1" t="s">
-        <v>14</v>
-      </c>
-      <c r="N1" t="s">
+      <c r="Q1" t="s">
+        <v>86</v>
+      </c>
+      <c r="R1" t="s">
         <v>87</v>
       </c>
-      <c r="O1" t="s">
+      <c r="S1" t="s">
         <v>88</v>
       </c>
-      <c r="P1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="T1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -3893,10 +8348,22 @@
       <c r="P2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -3943,10 +8410,22 @@
       <c r="P3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -3993,10 +8472,22 @@
       <c r="P4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
@@ -4043,10 +8534,22 @@
       <c r="P5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
@@ -4093,10 +8596,22 @@
       <c r="P6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
@@ -4141,6 +8656,18 @@
         <v>0</v>
       </c>
       <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
         <v>0</v>
       </c>
     </row>

--- a/resources.xlsx
+++ b/resources.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="13650" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="13650" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="atoms" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="158">
   <si>
     <t>FullName</t>
   </si>
@@ -494,6 +494,9 @@
   </si>
   <si>
     <t>-NH3</t>
+  </si>
+  <si>
+    <t>exchangeable_deuteriums</t>
   </si>
 </sst>
 </file>
@@ -1601,21 +1604,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W25"/>
+  <dimension ref="A1:X25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:W1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="12.42578125" customWidth="1"/>
-    <col min="16" max="16" width="7.7109375" customWidth="1"/>
-    <col min="17" max="17" width="6.5703125" customWidth="1"/>
-    <col min="18" max="18" width="6.140625" customWidth="1"/>
+    <col min="5" max="6" width="17.7109375" customWidth="1"/>
+    <col min="17" max="17" width="7.7109375" customWidth="1"/>
+    <col min="18" max="18" width="6.5703125" customWidth="1"/>
+    <col min="19" max="19" width="6.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1632,61 +1636,64 @@
         <v>137</v>
       </c>
       <c r="F1" t="s">
+        <v>157</v>
+      </c>
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>55</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>131</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>132</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>133</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>12</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>13</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>86</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>87</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>88</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -1703,19 +1710,19 @@
         <v>0</v>
       </c>
       <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
         <v>3</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>5</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
       </c>
       <c r="I2">
         <v>1</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -1756,8 +1763,11 @@
       <c r="W2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -1774,20 +1784,20 @@
         <v>1</v>
       </c>
       <c r="F3">
+        <v>5</v>
+      </c>
+      <c r="G3">
         <v>6</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>12</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>4</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>1</v>
       </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
       <c r="K3">
         <v>0</v>
       </c>
@@ -1827,8 +1837,11 @@
       <c r="W3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -1845,19 +1858,19 @@
         <v>0</v>
       </c>
       <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4">
         <v>5</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>6</v>
-      </c>
-      <c r="H4">
-        <v>2</v>
       </c>
       <c r="I4">
         <v>2</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -1898,8 +1911,11 @@
       <c r="W4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -1916,20 +1932,20 @@
         <v>-1</v>
       </c>
       <c r="F5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G5">
         <v>5</v>
       </c>
       <c r="H5">
+        <v>5</v>
+      </c>
+      <c r="I5">
         <v>1</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>3</v>
       </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
       <c r="K5">
         <v>0</v>
       </c>
@@ -1969,8 +1985,11 @@
       <c r="W5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -1987,29 +2006,29 @@
         <v>0</v>
       </c>
       <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6">
         <v>3</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>5</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
       </c>
       <c r="I6">
         <v>1</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
         <v>1</v>
       </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
       <c r="N6">
         <v>0</v>
       </c>
@@ -2040,8 +2059,11 @@
       <c r="W6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>32</v>
       </c>
@@ -2058,20 +2080,20 @@
         <v>-1</v>
       </c>
       <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7">
         <v>5</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>7</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>1</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>3</v>
       </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
       <c r="K7">
         <v>0</v>
       </c>
@@ -2111,8 +2133,11 @@
       <c r="W7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>36</v>
       </c>
@@ -2129,19 +2154,19 @@
         <v>0</v>
       </c>
       <c r="F8">
+        <v>3</v>
+      </c>
+      <c r="G8">
         <v>5</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>8</v>
-      </c>
-      <c r="H8">
-        <v>2</v>
       </c>
       <c r="I8">
         <v>2</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -2182,8 +2207,11 @@
       <c r="W8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>40</v>
       </c>
@@ -2200,19 +2228,19 @@
         <v>0</v>
       </c>
       <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
         <v>2</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>3</v>
-      </c>
-      <c r="H9">
-        <v>1</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -2253,8 +2281,11 @@
       <c r="W9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>44</v>
       </c>
@@ -2271,20 +2302,20 @@
         <v>1</v>
       </c>
       <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10">
         <v>6</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>7</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>3</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>1</v>
       </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
       <c r="K10">
         <v>0</v>
       </c>
@@ -2324,8 +2355,11 @@
       <c r="W10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>47</v>
       </c>
@@ -2342,19 +2376,19 @@
         <v>0</v>
       </c>
       <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
         <v>6</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>11</v>
-      </c>
-      <c r="H11">
-        <v>1</v>
       </c>
       <c r="I11">
         <v>1</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -2395,8 +2429,11 @@
       <c r="W11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>50</v>
       </c>
@@ -2413,19 +2450,19 @@
         <v>0</v>
       </c>
       <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
         <v>6</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>11</v>
-      </c>
-      <c r="H12">
-        <v>1</v>
       </c>
       <c r="I12">
         <v>1</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -2466,8 +2503,11 @@
       <c r="W12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>53</v>
       </c>
@@ -2484,20 +2524,20 @@
         <v>1</v>
       </c>
       <c r="F13">
+        <v>3</v>
+      </c>
+      <c r="G13">
         <v>6</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>12</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>2</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>1</v>
       </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
       <c r="K13">
         <v>0</v>
       </c>
@@ -2537,8 +2577,11 @@
       <c r="W13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>57</v>
       </c>
@@ -2555,29 +2598,29 @@
         <v>0</v>
       </c>
       <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
         <v>5</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>9</v>
-      </c>
-      <c r="H14">
-        <v>1</v>
       </c>
       <c r="I14">
         <v>1</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
         <v>1</v>
       </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
       <c r="N14">
         <v>0</v>
       </c>
@@ -2608,8 +2651,11 @@
       <c r="W14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>61</v>
       </c>
@@ -2626,19 +2672,19 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G15">
         <v>9</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="I15">
         <v>1</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -2679,8 +2725,11 @@
       <c r="W15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>64</v>
       </c>
@@ -2697,19 +2746,19 @@
         <v>0</v>
       </c>
       <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
         <v>5</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>7</v>
-      </c>
-      <c r="H16">
-        <v>1</v>
       </c>
       <c r="I16">
         <v>1</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -2750,8 +2799,11 @@
       <c r="W16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>67</v>
       </c>
@@ -2768,20 +2820,20 @@
         <v>0</v>
       </c>
       <c r="F17">
+        <v>2</v>
+      </c>
+      <c r="G17">
         <v>3</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>5</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>1</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>2</v>
       </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
       <c r="K17">
         <v>0</v>
       </c>
@@ -2821,8 +2873,11 @@
       <c r="W17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>145</v>
       </c>
@@ -2842,23 +2897,23 @@
         <v>3</v>
       </c>
       <c r="G18">
+        <v>3</v>
+      </c>
+      <c r="H18">
         <v>6</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>1</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>5</v>
       </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
       <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
         <v>1</v>
       </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
       <c r="M18">
         <v>0</v>
       </c>
@@ -2892,8 +2947,11 @@
       <c r="W18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>70</v>
       </c>
@@ -2910,20 +2968,20 @@
         <v>0</v>
       </c>
       <c r="F19">
+        <v>2</v>
+      </c>
+      <c r="G19">
         <v>4</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>7</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>1</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>2</v>
       </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
       <c r="K19">
         <v>0</v>
       </c>
@@ -2963,8 +3021,11 @@
       <c r="W19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>143</v>
       </c>
@@ -2981,26 +3042,26 @@
         <v>-1</v>
       </c>
       <c r="F20">
+        <v>3</v>
+      </c>
+      <c r="G20">
         <v>4</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>8</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>1</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>5</v>
       </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
       <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
         <v>1</v>
       </c>
-      <c r="L20">
-        <v>0</v>
-      </c>
       <c r="M20">
         <v>0</v>
       </c>
@@ -3034,8 +3095,11 @@
       <c r="W20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>141</v>
       </c>
@@ -3052,19 +3116,19 @@
         <v>0</v>
       </c>
       <c r="F21">
+        <v>2</v>
+      </c>
+      <c r="G21">
         <v>3</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>5</v>
-      </c>
-      <c r="H21">
-        <v>1</v>
       </c>
       <c r="I21">
         <v>1</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -3085,11 +3149,11 @@
         <v>0</v>
       </c>
       <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
         <v>1</v>
       </c>
-      <c r="R21">
-        <v>0</v>
-      </c>
       <c r="S21">
         <v>0</v>
       </c>
@@ -3105,8 +3169,11 @@
       <c r="W21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>74</v>
       </c>
@@ -3123,20 +3190,20 @@
         <v>0</v>
       </c>
       <c r="F22">
+        <v>2</v>
+      </c>
+      <c r="G22">
         <v>11</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>10</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>2</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>1</v>
       </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
       <c r="K22">
         <v>0</v>
       </c>
@@ -3176,8 +3243,11 @@
       <c r="W22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>78</v>
       </c>
@@ -3194,20 +3264,20 @@
         <v>-1</v>
       </c>
       <c r="F23">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G23">
         <v>9</v>
       </c>
       <c r="H23">
+        <v>9</v>
+      </c>
+      <c r="I23">
         <v>1</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>2</v>
       </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
       <c r="K23">
         <v>0</v>
       </c>
@@ -3247,8 +3317,11 @@
       <c r="W23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>147</v>
       </c>
@@ -3265,20 +3338,20 @@
         <v>-1</v>
       </c>
       <c r="F24">
+        <v>3</v>
+      </c>
+      <c r="G24">
         <v>9</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>10</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>1</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>5</v>
       </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
       <c r="K24">
         <v>0</v>
       </c>
@@ -3318,8 +3391,11 @@
       <c r="W24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>82</v>
       </c>
@@ -3336,19 +3412,19 @@
         <v>0</v>
       </c>
       <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
         <v>5</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>9</v>
-      </c>
-      <c r="H25">
-        <v>1</v>
       </c>
       <c r="I25">
         <v>1</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -3387,6 +3463,9 @@
         <v>0</v>
       </c>
       <c r="W25">
+        <v>0</v>
+      </c>
+      <c r="X25">
         <v>0</v>
       </c>
     </row>
@@ -3400,7 +3479,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
     </sheetView>

--- a/resources.xlsx
+++ b/resources.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="13650" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="13650" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="atoms" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="161">
   <si>
     <t>FullName</t>
   </si>
@@ -497,6 +497,15 @@
   </si>
   <si>
     <t>exchangeable_deuteriums</t>
+  </si>
+  <si>
+    <t>partial_sidechain_prime</t>
+  </si>
+  <si>
+    <t>d'</t>
+  </si>
+  <si>
+    <t>w'</t>
   </si>
 </sst>
 </file>
@@ -1606,14 +1615,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="12.42578125" customWidth="1"/>
-    <col min="5" max="6" width="17.7109375" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" customWidth="1"/>
+    <col min="6" max="6" width="21.7109375" customWidth="1"/>
     <col min="17" max="17" width="7.7109375" customWidth="1"/>
     <col min="18" max="18" width="6.5703125" customWidth="1"/>
     <col min="19" max="19" width="6.140625" customWidth="1"/>
@@ -3480,14 +3490,14 @@
   <dimension ref="A1:T62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" customWidth="1"/>
+    <col min="2" max="2" width="30.85546875" customWidth="1"/>
     <col min="13" max="13" width="7.7109375" customWidth="1"/>
     <col min="14" max="14" width="6.5703125" customWidth="1"/>
     <col min="15" max="15" width="6.140625" customWidth="1"/>
@@ -4738,7 +4748,7 @@
         <v>13</v>
       </c>
       <c r="B21" t="s">
-        <v>127</v>
+        <v>158</v>
       </c>
       <c r="C21">
         <v>-1</v>
@@ -5420,7 +5430,7 @@
         <v>72</v>
       </c>
       <c r="B32" t="s">
-        <v>127</v>
+        <v>158</v>
       </c>
       <c r="C32">
         <v>-1</v>
@@ -5544,7 +5554,7 @@
         <v>139</v>
       </c>
       <c r="B34" t="s">
-        <v>127</v>
+        <v>158</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -7345,10 +7355,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8104,13 +8114,13 @@
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>114</v>
+        <v>159</v>
       </c>
       <c r="B13" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -8119,7 +8129,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -8166,7 +8176,7 @@
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B14" t="s">
         <v>4</v>
@@ -8175,10 +8185,10 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E14">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -8228,77 +8238,201 @@
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>115</v>
+      </c>
+      <c r="B15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>-1</v>
+      </c>
+      <c r="E15">
+        <v>-1</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>160</v>
+      </c>
+      <c r="B16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>-1</v>
+      </c>
+      <c r="E16">
+        <v>-1</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>116</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B17" t="s">
         <v>6</v>
       </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
         <v>1</v>
       </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
         <v>1</v>
       </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-      <c r="N15">
-        <v>0</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>0</v>
-      </c>
-      <c r="R15">
-        <v>0</v>
-      </c>
-      <c r="S15">
-        <v>0</v>
-      </c>
-      <c r="T15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/resources.xlsx
+++ b/resources.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="13650" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="13650" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="atoms" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="161">
   <si>
     <t>FullName</t>
   </si>
@@ -406,12 +406,6 @@
     <t>term</t>
   </si>
   <si>
-    <t>partial_sidechain</t>
-  </si>
-  <si>
-    <t>full_sidechain</t>
-  </si>
-  <si>
     <t>Potassium</t>
   </si>
   <si>
@@ -499,13 +493,19 @@
     <t>exchangeable_deuteriums</t>
   </si>
   <si>
-    <t>partial_sidechain_prime</t>
-  </si>
-  <si>
     <t>d'</t>
   </si>
   <si>
     <t>w'</t>
+  </si>
+  <si>
+    <t>d_prime</t>
+  </si>
+  <si>
+    <t>w_prime</t>
+  </si>
+  <si>
+    <t>sidechain</t>
   </si>
 </sst>
 </file>
@@ -1460,7 +1460,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B10" t="s">
         <v>55</v>
@@ -1475,10 +1475,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B11" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C11">
         <v>55.934937499999997</v>
@@ -1490,10 +1490,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B12" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C12">
         <v>62.9295975</v>
@@ -1505,10 +1505,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B13" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C13">
         <v>73.922476560999996</v>
@@ -1593,7 +1593,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B19" t="s">
         <v>27</v>
@@ -1643,10 +1643,10 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
@@ -1676,13 +1676,13 @@
         <v>55</v>
       </c>
       <c r="P1" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>130</v>
+      </c>
+      <c r="R1" t="s">
         <v>131</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>132</v>
-      </c>
-      <c r="R1" t="s">
-        <v>133</v>
       </c>
       <c r="S1" t="s">
         <v>12</v>
@@ -2889,16 +2889,16 @@
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B18" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C18" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D18" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E18">
         <v>-1</v>
@@ -3037,16 +3037,16 @@
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B20" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C20" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D20" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E20">
         <v>-1</v>
@@ -3111,16 +3111,16 @@
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B21" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C21" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D21" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -3333,16 +3333,16 @@
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B24" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C24" t="s">
         <v>109</v>
       </c>
       <c r="D24" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E24">
         <v>-1</v>
@@ -3487,23 +3487,29 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T62"/>
+  <dimension ref="A1:Z74"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="30.85546875" customWidth="1"/>
-    <col min="13" max="13" width="7.7109375" customWidth="1"/>
-    <col min="14" max="14" width="6.5703125" customWidth="1"/>
-    <col min="15" max="15" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+    <col min="3" max="3" width="5.5703125" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" customWidth="1"/>
+    <col min="5" max="5" width="4.85546875" customWidth="1"/>
+    <col min="6" max="6" width="4.7109375" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" customWidth="1"/>
+    <col min="8" max="8" width="12" customWidth="1"/>
+    <col min="19" max="19" width="7.7109375" customWidth="1"/>
+    <col min="20" max="20" width="6.5703125" customWidth="1"/>
+    <col min="21" max="21" width="6.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -3511,97 +3517,103 @@
         <v>125</v>
       </c>
       <c r="C1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F1" t="s">
+        <v>115</v>
+      </c>
+      <c r="G1" t="s">
+        <v>159</v>
+      </c>
+      <c r="H1" t="s">
+        <v>160</v>
+      </c>
+      <c r="I1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="J1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
+      <c r="K1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" t="s">
+      <c r="L1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" t="s">
+      <c r="M1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" t="s">
+      <c r="N1" t="s">
         <v>9</v>
       </c>
-      <c r="I1" t="s">
+      <c r="O1" t="s">
         <v>10</v>
       </c>
-      <c r="J1" t="s">
+      <c r="P1" t="s">
         <v>11</v>
       </c>
-      <c r="K1" t="s">
+      <c r="Q1" t="s">
         <v>55</v>
       </c>
-      <c r="L1" t="s">
+      <c r="R1" t="s">
+        <v>129</v>
+      </c>
+      <c r="S1" t="s">
+        <v>130</v>
+      </c>
+      <c r="T1" t="s">
         <v>131</v>
       </c>
-      <c r="M1" t="s">
-        <v>132</v>
-      </c>
-      <c r="N1" t="s">
-        <v>133</v>
-      </c>
-      <c r="O1" t="s">
+      <c r="U1" t="s">
         <v>12</v>
       </c>
-      <c r="P1" t="s">
+      <c r="V1" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="W1" t="s">
         <v>86</v>
       </c>
-      <c r="R1" t="s">
+      <c r="X1" t="s">
         <v>87</v>
       </c>
-      <c r="S1" t="s">
+      <c r="Y1" t="s">
         <v>88</v>
       </c>
-      <c r="T1" t="s">
+      <c r="Z1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>27</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
+        <v>151</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
         <v>-2</v>
       </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
         <v>-1</v>
       </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
       <c r="M2">
         <v>0</v>
       </c>
@@ -3626,44 +3638,50 @@
       <c r="T2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>27</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C3">
+        <v>153</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3">
         <v>-1</v>
       </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
         <v>-2</v>
       </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
       <c r="M3">
         <v>0</v>
       </c>
@@ -3688,44 +3706,50 @@
       <c r="T3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>34</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
+        <v>151</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
         <v>-2</v>
       </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
         <v>-1</v>
       </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
       <c r="M4">
         <v>0</v>
       </c>
@@ -3750,44 +3774,50 @@
       <c r="T4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>34</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C5">
+        <v>153</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5">
         <v>-1</v>
       </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
         <v>-2</v>
       </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
       <c r="M5">
         <v>0</v>
       </c>
@@ -3812,41 +3842,47 @@
       <c r="T5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>55</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
+        <v>154</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
         <v>-3</v>
       </c>
-      <c r="E6">
+      <c r="K6">
         <v>-1</v>
       </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
       <c r="L6">
         <v>0</v>
       </c>
@@ -3874,41 +3910,47 @@
       <c r="T6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
+        <v>154</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
         <v>-3</v>
       </c>
-      <c r="E7">
+      <c r="K7">
         <v>-1</v>
       </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
       <c r="L7">
         <v>0</v>
       </c>
@@ -3936,41 +3978,47 @@
       <c r="T7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>38</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
+        <v>154</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
         <v>-3</v>
       </c>
-      <c r="E8">
+      <c r="K8">
         <v>-1</v>
       </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
       <c r="L8">
         <v>0</v>
       </c>
@@ -3998,41 +4046,47 @@
       <c r="T8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>20</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
+        <v>154</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
         <v>-3</v>
       </c>
-      <c r="E9">
+      <c r="K9">
         <v>-1</v>
       </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
       <c r="L9">
         <v>0</v>
       </c>
@@ -4060,44 +4114,50 @@
       <c r="T9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
+        <v>151</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
         <v>-2</v>
       </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
         <v>-1</v>
       </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
       <c r="M10">
         <v>0</v>
       </c>
@@ -4122,50 +4182,56 @@
       <c r="T10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
+        <v>152</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
         <v>-3</v>
       </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
         <v>-4</v>
       </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
         <v>-1</v>
       </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
       <c r="O11">
         <v>0</v>
       </c>
@@ -4184,44 +4250,50 @@
       <c r="T11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>72</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
+        <v>151</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
         <v>-2</v>
       </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
         <v>-1</v>
       </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
       <c r="M12">
         <v>0</v>
       </c>
@@ -4246,50 +4318,56 @@
       <c r="T12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
+        <v>152</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
         <v>-3</v>
       </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
         <v>-4</v>
       </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
         <v>-1</v>
       </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
       <c r="O13">
         <v>0</v>
       </c>
@@ -4308,50 +4386,56 @@
       <c r="T13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <v>0</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>109</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
+        <v>152</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
         <v>-3</v>
       </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
         <v>-4</v>
       </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
         <v>-1</v>
       </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-      <c r="N14">
-        <v>0</v>
-      </c>
       <c r="O14">
         <v>0</v>
       </c>
@@ -4370,53 +4454,62 @@
       <c r="T14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <v>0</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>127</v>
+        <v>160</v>
       </c>
       <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
         <v>-1</v>
       </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
         <v>-1</v>
       </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-      <c r="N15">
-        <v>0</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
       <c r="P15">
         <v>0</v>
       </c>
@@ -4432,44 +4525,53 @@
       <c r="T15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>27</v>
       </c>
       <c r="B16" t="s">
-        <v>127</v>
+        <v>160</v>
       </c>
       <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
         <v>-1</v>
       </c>
-      <c r="D16">
+      <c r="J16">
         <v>-1</v>
       </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
         <v>-2</v>
       </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
       <c r="M16">
         <v>0</v>
       </c>
@@ -4494,44 +4596,53 @@
       <c r="T16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>34</v>
       </c>
       <c r="B17" t="s">
-        <v>127</v>
+        <v>160</v>
       </c>
       <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
         <v>-2</v>
       </c>
-      <c r="D17">
+      <c r="J17">
         <v>-3</v>
       </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
         <v>-2</v>
       </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
       <c r="M17">
         <v>0</v>
       </c>
@@ -4556,38 +4667,47 @@
       <c r="T17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <v>0</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>8</v>
       </c>
       <c r="B18" t="s">
-        <v>127</v>
+        <v>160</v>
       </c>
       <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
         <v>-6</v>
       </c>
-      <c r="D18">
+      <c r="J18">
         <v>-5</v>
       </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
       <c r="K18">
         <v>0</v>
       </c>
@@ -4618,41 +4738,50 @@
       <c r="T18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
+      </c>
+      <c r="Y18">
+        <v>0</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>5</v>
       </c>
       <c r="B19" t="s">
-        <v>127</v>
+        <v>160</v>
       </c>
       <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
         <v>-3</v>
       </c>
-      <c r="D19">
+      <c r="J19">
         <v>-3</v>
       </c>
-      <c r="E19">
+      <c r="K19">
         <v>-2</v>
       </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
       <c r="L19">
         <v>0</v>
       </c>
@@ -4680,38 +4809,47 @@
       <c r="T19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U19">
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <v>0</v>
+      </c>
+      <c r="Y19">
+        <v>0</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>13</v>
       </c>
       <c r="B20" t="s">
-        <v>127</v>
+        <v>160</v>
       </c>
       <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
         <v>-2</v>
       </c>
-      <c r="D20">
+      <c r="J20">
         <v>-5</v>
       </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
       <c r="K20">
         <v>0</v>
       </c>
@@ -4742,38 +4880,47 @@
       <c r="T20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U20">
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <v>0</v>
+      </c>
+      <c r="W20">
+        <v>0</v>
+      </c>
+      <c r="X20">
+        <v>0</v>
+      </c>
+      <c r="Y20">
+        <v>0</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>13</v>
       </c>
       <c r="B21" t="s">
-        <v>158</v>
-      </c>
-      <c r="C21">
+        <v>160</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
         <v>-1</v>
       </c>
-      <c r="D21">
+      <c r="J21">
         <v>-3</v>
       </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
       <c r="K21">
         <v>0</v>
       </c>
@@ -4804,41 +4951,50 @@
       <c r="T21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <v>0</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
+      </c>
+      <c r="Y21">
+        <v>0</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>55</v>
       </c>
       <c r="B22" t="s">
-        <v>127</v>
+        <v>160</v>
       </c>
       <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22">
         <v>-3</v>
       </c>
-      <c r="D22">
+      <c r="J22">
         <v>-8</v>
       </c>
-      <c r="E22">
+      <c r="K22">
         <v>-1</v>
       </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
       <c r="L22">
         <v>0</v>
       </c>
@@ -4866,38 +5022,47 @@
       <c r="T22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U22">
+        <v>0</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
+      <c r="X22">
+        <v>0</v>
+      </c>
+      <c r="Y22">
+        <v>0</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>52</v>
       </c>
       <c r="B23" t="s">
-        <v>127</v>
+        <v>160</v>
       </c>
       <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23">
         <v>-3</v>
       </c>
-      <c r="D23">
+      <c r="J23">
         <v>-7</v>
       </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
       <c r="K23">
         <v>0</v>
       </c>
@@ -4928,53 +5093,62 @@
       <c r="T23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <v>0</v>
+      </c>
+      <c r="Y23">
+        <v>0</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>59</v>
       </c>
       <c r="B24" t="s">
-        <v>127</v>
+        <v>160</v>
       </c>
       <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24">
         <v>-2</v>
       </c>
-      <c r="D24">
+      <c r="J24">
         <v>-5</v>
       </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24">
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
         <v>-1</v>
       </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
-      <c r="K24">
-        <v>0</v>
-      </c>
-      <c r="L24">
-        <v>0</v>
-      </c>
-      <c r="M24">
-        <v>0</v>
-      </c>
-      <c r="N24">
-        <v>0</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
       <c r="P24">
         <v>0</v>
       </c>
@@ -4990,44 +5164,53 @@
       <c r="T24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U24">
+        <v>0</v>
+      </c>
+      <c r="V24">
+        <v>0</v>
+      </c>
+      <c r="W24">
+        <v>0</v>
+      </c>
+      <c r="X24">
+        <v>0</v>
+      </c>
+      <c r="Y24">
+        <v>0</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>127</v>
+        <v>160</v>
       </c>
       <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
         <v>-1</v>
       </c>
-      <c r="D25">
+      <c r="J25">
         <v>-2</v>
       </c>
-      <c r="E25">
+      <c r="K25">
         <v>-1</v>
       </c>
-      <c r="F25">
+      <c r="L25">
         <v>-1</v>
       </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
-      <c r="K25">
-        <v>0</v>
-      </c>
-      <c r="L25">
-        <v>0</v>
-      </c>
       <c r="M25">
         <v>0</v>
       </c>
@@ -5052,38 +5235,44 @@
       <c r="T25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U25">
+        <v>0</v>
+      </c>
+      <c r="V25">
+        <v>0</v>
+      </c>
+      <c r="W25">
+        <v>0</v>
+      </c>
+      <c r="X25">
+        <v>0</v>
+      </c>
+      <c r="Y25">
+        <v>0</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>9</v>
       </c>
       <c r="B26" t="s">
-        <v>127</v>
+        <v>160</v>
       </c>
       <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="I26">
         <v>-2</v>
       </c>
-      <c r="D26">
+      <c r="J26">
         <v>-3</v>
       </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <v>0</v>
-      </c>
-      <c r="G26">
-        <v>0</v>
-      </c>
-      <c r="H26">
-        <v>0</v>
-      </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
-      <c r="J26">
-        <v>0</v>
-      </c>
       <c r="K26">
         <v>0</v>
       </c>
@@ -5114,44 +5303,53 @@
       <c r="T26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U26">
+        <v>0</v>
+      </c>
+      <c r="V26">
+        <v>0</v>
+      </c>
+      <c r="W26">
+        <v>0</v>
+      </c>
+      <c r="X26">
+        <v>0</v>
+      </c>
+      <c r="Y26">
+        <v>0</v>
+      </c>
+      <c r="Z26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>38</v>
       </c>
       <c r="B27" t="s">
-        <v>127</v>
+        <v>160</v>
       </c>
       <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27">
         <v>-2</v>
       </c>
-      <c r="D27">
+      <c r="J27">
         <v>-4</v>
       </c>
-      <c r="E27">
+      <c r="K27">
         <v>-1</v>
       </c>
-      <c r="F27">
+      <c r="L27">
         <v>-1</v>
       </c>
-      <c r="G27">
-        <v>0</v>
-      </c>
-      <c r="H27">
-        <v>0</v>
-      </c>
-      <c r="I27">
-        <v>0</v>
-      </c>
-      <c r="J27">
-        <v>0</v>
-      </c>
-      <c r="K27">
-        <v>0</v>
-      </c>
-      <c r="L27">
-        <v>0</v>
-      </c>
       <c r="M27">
         <v>0</v>
       </c>
@@ -5176,41 +5374,50 @@
       <c r="T27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U27">
+        <v>0</v>
+      </c>
+      <c r="V27">
+        <v>0</v>
+      </c>
+      <c r="W27">
+        <v>0</v>
+      </c>
+      <c r="X27">
+        <v>0</v>
+      </c>
+      <c r="Y27">
+        <v>0</v>
+      </c>
+      <c r="Z27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>20</v>
       </c>
       <c r="B28" t="s">
-        <v>127</v>
+        <v>160</v>
       </c>
       <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28">
         <v>-3</v>
       </c>
-      <c r="D28">
+      <c r="J28">
         <v>-8</v>
       </c>
-      <c r="E28">
+      <c r="K28">
         <v>-3</v>
       </c>
-      <c r="F28">
-        <v>0</v>
-      </c>
-      <c r="G28">
-        <v>0</v>
-      </c>
-      <c r="H28">
-        <v>0</v>
-      </c>
-      <c r="I28">
-        <v>0</v>
-      </c>
-      <c r="J28">
-        <v>0</v>
-      </c>
-      <c r="K28">
-        <v>0</v>
-      </c>
       <c r="L28">
         <v>0</v>
       </c>
@@ -5238,44 +5445,50 @@
       <c r="T28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U28">
+        <v>0</v>
+      </c>
+      <c r="V28">
+        <v>0</v>
+      </c>
+      <c r="W28">
+        <v>0</v>
+      </c>
+      <c r="X28">
+        <v>0</v>
+      </c>
+      <c r="Y28">
+        <v>0</v>
+      </c>
+      <c r="Z28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>10</v>
       </c>
       <c r="B29" t="s">
-        <v>127</v>
+        <v>160</v>
       </c>
       <c r="C29">
-        <v>0</v>
-      </c>
-      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
         <v>-1</v>
       </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29">
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
         <v>-1</v>
       </c>
-      <c r="G29">
-        <v>0</v>
-      </c>
-      <c r="H29">
-        <v>0</v>
-      </c>
-      <c r="I29">
-        <v>0</v>
-      </c>
-      <c r="J29">
-        <v>0</v>
-      </c>
-      <c r="K29">
-        <v>0</v>
-      </c>
-      <c r="L29">
-        <v>0</v>
-      </c>
       <c r="M29">
         <v>0</v>
       </c>
@@ -5300,50 +5513,56 @@
       <c r="T29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U29">
+        <v>0</v>
+      </c>
+      <c r="V29">
+        <v>0</v>
+      </c>
+      <c r="W29">
+        <v>0</v>
+      </c>
+      <c r="X29">
+        <v>0</v>
+      </c>
+      <c r="Y29">
+        <v>0</v>
+      </c>
+      <c r="Z29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B30" t="s">
-        <v>127</v>
+        <v>160</v>
       </c>
       <c r="C30">
-        <v>0</v>
-      </c>
-      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
         <v>-2</v>
       </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30">
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
         <v>-4</v>
       </c>
-      <c r="G30">
-        <v>0</v>
-      </c>
-      <c r="H30">
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
         <v>-1</v>
       </c>
-      <c r="I30">
-        <v>0</v>
-      </c>
-      <c r="J30">
-        <v>0</v>
-      </c>
-      <c r="K30">
-        <v>0</v>
-      </c>
-      <c r="L30">
-        <v>0</v>
-      </c>
-      <c r="M30">
-        <v>0</v>
-      </c>
-      <c r="N30">
-        <v>0</v>
-      </c>
       <c r="O30">
         <v>0</v>
       </c>
@@ -5362,44 +5581,50 @@
       <c r="T30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U30">
+        <v>0</v>
+      </c>
+      <c r="V30">
+        <v>0</v>
+      </c>
+      <c r="W30">
+        <v>0</v>
+      </c>
+      <c r="X30">
+        <v>0</v>
+      </c>
+      <c r="Y30">
+        <v>0</v>
+      </c>
+      <c r="Z30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>72</v>
       </c>
       <c r="B31" t="s">
-        <v>127</v>
+        <v>160</v>
       </c>
       <c r="C31">
-        <v>0</v>
-      </c>
-      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
         <v>-1</v>
       </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31">
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
         <v>-1</v>
       </c>
-      <c r="G31">
-        <v>0</v>
-      </c>
-      <c r="H31">
-        <v>0</v>
-      </c>
-      <c r="I31">
-        <v>0</v>
-      </c>
-      <c r="J31">
-        <v>0</v>
-      </c>
-      <c r="K31">
-        <v>0</v>
-      </c>
-      <c r="L31">
-        <v>0</v>
-      </c>
       <c r="M31">
         <v>0</v>
       </c>
@@ -5424,38 +5649,44 @@
       <c r="T31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U31">
+        <v>0</v>
+      </c>
+      <c r="V31">
+        <v>0</v>
+      </c>
+      <c r="W31">
+        <v>0</v>
+      </c>
+      <c r="X31">
+        <v>0</v>
+      </c>
+      <c r="Y31">
+        <v>0</v>
+      </c>
+      <c r="Z31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>72</v>
       </c>
       <c r="B32" t="s">
-        <v>158</v>
-      </c>
-      <c r="C32">
+        <v>160</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="I32">
         <v>-1</v>
       </c>
-      <c r="D32">
+      <c r="J32">
         <v>-3</v>
       </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32">
-        <v>0</v>
-      </c>
-      <c r="G32">
-        <v>0</v>
-      </c>
-      <c r="H32">
-        <v>0</v>
-      </c>
-      <c r="I32">
-        <v>0</v>
-      </c>
-      <c r="J32">
-        <v>0</v>
-      </c>
       <c r="K32">
         <v>0</v>
       </c>
@@ -5486,38 +5717,44 @@
       <c r="T32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U32">
+        <v>0</v>
+      </c>
+      <c r="V32">
+        <v>0</v>
+      </c>
+      <c r="W32">
+        <v>0</v>
+      </c>
+      <c r="X32">
+        <v>0</v>
+      </c>
+      <c r="Y32">
+        <v>0</v>
+      </c>
+      <c r="Z32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B33" t="s">
-        <v>127</v>
+        <v>160</v>
       </c>
       <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="I33">
         <v>-1</v>
       </c>
-      <c r="D33">
+      <c r="J33">
         <v>-3</v>
       </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-      <c r="F33">
-        <v>0</v>
-      </c>
-      <c r="G33">
-        <v>0</v>
-      </c>
-      <c r="H33">
-        <v>0</v>
-      </c>
-      <c r="I33">
-        <v>0</v>
-      </c>
-      <c r="J33">
-        <v>0</v>
-      </c>
       <c r="K33">
         <v>0</v>
       </c>
@@ -5548,50 +5785,56 @@
       <c r="T33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U33">
+        <v>0</v>
+      </c>
+      <c r="V33">
+        <v>0</v>
+      </c>
+      <c r="W33">
+        <v>0</v>
+      </c>
+      <c r="X33">
+        <v>0</v>
+      </c>
+      <c r="Y33">
+        <v>0</v>
+      </c>
+      <c r="Z33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B34" t="s">
-        <v>158</v>
-      </c>
-      <c r="C34">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
         <v>-2</v>
       </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-      <c r="F34">
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
         <v>-4</v>
       </c>
-      <c r="G34">
-        <v>0</v>
-      </c>
-      <c r="H34">
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34">
         <v>-1</v>
       </c>
-      <c r="I34">
-        <v>0</v>
-      </c>
-      <c r="J34">
-        <v>0</v>
-      </c>
-      <c r="K34">
-        <v>0</v>
-      </c>
-      <c r="L34">
-        <v>0</v>
-      </c>
-      <c r="M34">
-        <v>0</v>
-      </c>
-      <c r="N34">
-        <v>0</v>
-      </c>
       <c r="O34">
         <v>0</v>
       </c>
@@ -5610,38 +5853,47 @@
       <c r="T34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U34">
+        <v>0</v>
+      </c>
+      <c r="V34">
+        <v>0</v>
+      </c>
+      <c r="W34">
+        <v>0</v>
+      </c>
+      <c r="X34">
+        <v>0</v>
+      </c>
+      <c r="Y34">
+        <v>0</v>
+      </c>
+      <c r="Z34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B35" t="s">
-        <v>127</v>
+        <v>160</v>
       </c>
       <c r="C35">
-        <v>0</v>
-      </c>
-      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
         <v>-1</v>
       </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
-      <c r="F35">
-        <v>0</v>
-      </c>
-      <c r="G35">
-        <v>0</v>
-      </c>
-      <c r="H35">
-        <v>0</v>
-      </c>
-      <c r="I35">
-        <v>0</v>
-      </c>
-      <c r="J35">
-        <v>0</v>
-      </c>
       <c r="K35">
         <v>0</v>
       </c>
@@ -5652,58 +5904,64 @@
         <v>0</v>
       </c>
       <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>0</v>
+      </c>
+      <c r="R35">
+        <v>0</v>
+      </c>
+      <c r="S35">
+        <v>0</v>
+      </c>
+      <c r="T35">
         <v>-1</v>
       </c>
-      <c r="O35">
-        <v>0</v>
-      </c>
-      <c r="P35">
-        <v>0</v>
-      </c>
-      <c r="Q35">
-        <v>0</v>
-      </c>
-      <c r="R35">
-        <v>0</v>
-      </c>
-      <c r="S35">
-        <v>0</v>
-      </c>
-      <c r="T35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U35">
+        <v>0</v>
+      </c>
+      <c r="V35">
+        <v>0</v>
+      </c>
+      <c r="W35">
+        <v>0</v>
+      </c>
+      <c r="X35">
+        <v>0</v>
+      </c>
+      <c r="Y35">
+        <v>0</v>
+      </c>
+      <c r="Z35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>84</v>
       </c>
       <c r="B36" t="s">
-        <v>127</v>
+        <v>160</v>
       </c>
       <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="I36">
         <v>-1</v>
       </c>
-      <c r="D36">
+      <c r="J36">
         <v>-3</v>
       </c>
-      <c r="E36">
-        <v>0</v>
-      </c>
-      <c r="F36">
-        <v>0</v>
-      </c>
-      <c r="G36">
-        <v>0</v>
-      </c>
-      <c r="H36">
-        <v>0</v>
-      </c>
-      <c r="I36">
-        <v>0</v>
-      </c>
-      <c r="J36">
-        <v>0</v>
-      </c>
       <c r="K36">
         <v>0</v>
       </c>
@@ -5734,41 +5992,50 @@
       <c r="T36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U36">
+        <v>0</v>
+      </c>
+      <c r="V36">
+        <v>0</v>
+      </c>
+      <c r="W36">
+        <v>0</v>
+      </c>
+      <c r="X36">
+        <v>0</v>
+      </c>
+      <c r="Y36">
+        <v>0</v>
+      </c>
+      <c r="Z36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>76</v>
       </c>
       <c r="B37" t="s">
-        <v>127</v>
+        <v>160</v>
       </c>
       <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="H37">
+        <v>1</v>
+      </c>
+      <c r="I37">
         <v>-8</v>
       </c>
-      <c r="D37">
+      <c r="J37">
         <v>-6</v>
       </c>
-      <c r="E37">
+      <c r="K37">
         <v>-1</v>
       </c>
-      <c r="F37">
-        <v>0</v>
-      </c>
-      <c r="G37">
-        <v>0</v>
-      </c>
-      <c r="H37">
-        <v>0</v>
-      </c>
-      <c r="I37">
-        <v>0</v>
-      </c>
-      <c r="J37">
-        <v>0</v>
-      </c>
-      <c r="K37">
-        <v>0</v>
-      </c>
       <c r="L37">
         <v>0</v>
       </c>
@@ -5796,44 +6063,50 @@
       <c r="T37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U37">
+        <v>0</v>
+      </c>
+      <c r="V37">
+        <v>0</v>
+      </c>
+      <c r="W37">
+        <v>0</v>
+      </c>
+      <c r="X37">
+        <v>0</v>
+      </c>
+      <c r="Y37">
+        <v>0</v>
+      </c>
+      <c r="Z37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>80</v>
       </c>
       <c r="B38" t="s">
-        <v>127</v>
+        <v>160</v>
       </c>
       <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="I38">
         <v>-6</v>
       </c>
-      <c r="D38">
+      <c r="J38">
         <v>-5</v>
       </c>
-      <c r="E38">
-        <v>0</v>
-      </c>
-      <c r="F38">
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
         <v>-1</v>
       </c>
-      <c r="G38">
-        <v>0</v>
-      </c>
-      <c r="H38">
-        <v>0</v>
-      </c>
-      <c r="I38">
-        <v>0</v>
-      </c>
-      <c r="J38">
-        <v>0</v>
-      </c>
-      <c r="K38">
-        <v>0</v>
-      </c>
-      <c r="L38">
-        <v>0</v>
-      </c>
       <c r="M38">
         <v>0</v>
       </c>
@@ -5858,50 +6131,56 @@
       <c r="T38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U38">
+        <v>0</v>
+      </c>
+      <c r="V38">
+        <v>0</v>
+      </c>
+      <c r="W38">
+        <v>0</v>
+      </c>
+      <c r="X38">
+        <v>0</v>
+      </c>
+      <c r="Y38">
+        <v>0</v>
+      </c>
+      <c r="Z38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>109</v>
       </c>
       <c r="B39" t="s">
-        <v>127</v>
+        <v>160</v>
       </c>
       <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="I39">
         <v>-6</v>
       </c>
-      <c r="D39">
+      <c r="J39">
         <v>-6</v>
       </c>
-      <c r="E39">
-        <v>0</v>
-      </c>
-      <c r="F39">
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39">
         <v>-4</v>
       </c>
-      <c r="G39">
-        <v>0</v>
-      </c>
-      <c r="H39">
+      <c r="M39">
+        <v>0</v>
+      </c>
+      <c r="N39">
         <v>-1</v>
       </c>
-      <c r="I39">
-        <v>0</v>
-      </c>
-      <c r="J39">
-        <v>0</v>
-      </c>
-      <c r="K39">
-        <v>0</v>
-      </c>
-      <c r="L39">
-        <v>0</v>
-      </c>
-      <c r="M39">
-        <v>0</v>
-      </c>
-      <c r="N39">
-        <v>0</v>
-      </c>
       <c r="O39">
         <v>0</v>
       </c>
@@ -5920,38 +6199,41 @@
       <c r="T39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U39">
+        <v>0</v>
+      </c>
+      <c r="V39">
+        <v>0</v>
+      </c>
+      <c r="W39">
+        <v>0</v>
+      </c>
+      <c r="X39">
+        <v>0</v>
+      </c>
+      <c r="Y39">
+        <v>0</v>
+      </c>
+      <c r="Z39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>16</v>
       </c>
       <c r="B40" t="s">
-        <v>128</v>
-      </c>
-      <c r="C40">
+        <v>160</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="I40">
         <v>-1</v>
       </c>
-      <c r="D40">
+      <c r="J40">
         <v>-3</v>
       </c>
-      <c r="E40">
-        <v>0</v>
-      </c>
-      <c r="F40">
-        <v>0</v>
-      </c>
-      <c r="G40">
-        <v>0</v>
-      </c>
-      <c r="H40">
-        <v>0</v>
-      </c>
-      <c r="I40">
-        <v>0</v>
-      </c>
-      <c r="J40">
-        <v>0</v>
-      </c>
       <c r="K40">
         <v>0</v>
       </c>
@@ -5982,37 +6264,40 @@
       <c r="T40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U40">
+        <v>0</v>
+      </c>
+      <c r="V40">
+        <v>0</v>
+      </c>
+      <c r="W40">
+        <v>0</v>
+      </c>
+      <c r="X40">
+        <v>0</v>
+      </c>
+      <c r="Y40">
+        <v>0</v>
+      </c>
+      <c r="Z40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>4</v>
       </c>
       <c r="B41" t="s">
-        <v>128</v>
-      </c>
-      <c r="C41">
-        <v>-1</v>
-      </c>
-      <c r="D41">
-        <v>-3</v>
+        <v>160</v>
       </c>
       <c r="E41">
-        <v>0</v>
-      </c>
-      <c r="F41">
-        <v>0</v>
-      </c>
-      <c r="G41">
-        <v>0</v>
-      </c>
-      <c r="H41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I41">
         <v>-1</v>
       </c>
       <c r="J41">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="K41">
         <v>0</v>
@@ -6027,7 +6312,7 @@
         <v>0</v>
       </c>
       <c r="O41">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P41">
         <v>0</v>
@@ -6044,44 +6329,47 @@
       <c r="T41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U41">
+        <v>0</v>
+      </c>
+      <c r="V41">
+        <v>0</v>
+      </c>
+      <c r="W41">
+        <v>0</v>
+      </c>
+      <c r="X41">
+        <v>0</v>
+      </c>
+      <c r="Y41">
+        <v>0</v>
+      </c>
+      <c r="Z41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>27</v>
       </c>
       <c r="B42" t="s">
-        <v>128</v>
-      </c>
-      <c r="C42">
+        <v>160</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="I42">
         <v>-2</v>
       </c>
-      <c r="D42">
+      <c r="J42">
         <v>-3</v>
       </c>
-      <c r="E42">
-        <v>0</v>
-      </c>
-      <c r="F42">
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
         <v>-2</v>
       </c>
-      <c r="G42">
-        <v>0</v>
-      </c>
-      <c r="H42">
-        <v>0</v>
-      </c>
-      <c r="I42">
-        <v>0</v>
-      </c>
-      <c r="J42">
-        <v>0</v>
-      </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
       <c r="M42">
         <v>0</v>
       </c>
@@ -6106,44 +6394,47 @@
       <c r="T42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U42">
+        <v>0</v>
+      </c>
+      <c r="V42">
+        <v>0</v>
+      </c>
+      <c r="W42">
+        <v>0</v>
+      </c>
+      <c r="X42">
+        <v>0</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>34</v>
       </c>
       <c r="B43" t="s">
-        <v>128</v>
-      </c>
-      <c r="C43">
+        <v>160</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="I43">
         <v>-3</v>
       </c>
-      <c r="D43">
+      <c r="J43">
         <v>-5</v>
       </c>
-      <c r="E43">
-        <v>0</v>
-      </c>
-      <c r="F43">
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
         <v>-2</v>
       </c>
-      <c r="G43">
-        <v>0</v>
-      </c>
-      <c r="H43">
-        <v>0</v>
-      </c>
-      <c r="I43">
-        <v>0</v>
-      </c>
-      <c r="J43">
-        <v>0</v>
-      </c>
-      <c r="K43">
-        <v>0</v>
-      </c>
-      <c r="L43">
-        <v>0</v>
-      </c>
       <c r="M43">
         <v>0</v>
       </c>
@@ -6168,38 +6459,41 @@
       <c r="T43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U43">
+        <v>0</v>
+      </c>
+      <c r="V43">
+        <v>0</v>
+      </c>
+      <c r="W43">
+        <v>0</v>
+      </c>
+      <c r="X43">
+        <v>0</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>8</v>
       </c>
       <c r="B44" t="s">
-        <v>128</v>
-      </c>
-      <c r="C44">
+        <v>160</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="I44">
         <v>-7</v>
       </c>
-      <c r="D44">
+      <c r="J44">
         <v>-7</v>
       </c>
-      <c r="E44">
-        <v>0</v>
-      </c>
-      <c r="F44">
-        <v>0</v>
-      </c>
-      <c r="G44">
-        <v>0</v>
-      </c>
-      <c r="H44">
-        <v>0</v>
-      </c>
-      <c r="I44">
-        <v>0</v>
-      </c>
-      <c r="J44">
-        <v>0</v>
-      </c>
       <c r="K44">
         <v>0</v>
       </c>
@@ -6230,41 +6524,44 @@
       <c r="T44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U44">
+        <v>0</v>
+      </c>
+      <c r="V44">
+        <v>0</v>
+      </c>
+      <c r="W44">
+        <v>0</v>
+      </c>
+      <c r="X44">
+        <v>0</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>5</v>
       </c>
       <c r="B45" t="s">
-        <v>128</v>
-      </c>
-      <c r="C45">
+        <v>160</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="I45">
         <v>-4</v>
       </c>
-      <c r="D45">
+      <c r="J45">
         <v>-5</v>
       </c>
-      <c r="E45">
+      <c r="K45">
         <v>-2</v>
       </c>
-      <c r="F45">
-        <v>0</v>
-      </c>
-      <c r="G45">
-        <v>0</v>
-      </c>
-      <c r="H45">
-        <v>0</v>
-      </c>
-      <c r="I45">
-        <v>0</v>
-      </c>
-      <c r="J45">
-        <v>0</v>
-      </c>
-      <c r="K45">
-        <v>0</v>
-      </c>
       <c r="L45">
         <v>0</v>
       </c>
@@ -6292,38 +6589,41 @@
       <c r="T45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U45">
+        <v>0</v>
+      </c>
+      <c r="V45">
+        <v>0</v>
+      </c>
+      <c r="W45">
+        <v>0</v>
+      </c>
+      <c r="X45">
+        <v>0</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>13</v>
       </c>
       <c r="B46" t="s">
-        <v>128</v>
-      </c>
-      <c r="C46">
+        <v>160</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="I46">
         <v>-4</v>
       </c>
-      <c r="D46">
+      <c r="J46">
         <v>-9</v>
       </c>
-      <c r="E46">
-        <v>0</v>
-      </c>
-      <c r="F46">
-        <v>0</v>
-      </c>
-      <c r="G46">
-        <v>0</v>
-      </c>
-      <c r="H46">
-        <v>0</v>
-      </c>
-      <c r="I46">
-        <v>0</v>
-      </c>
-      <c r="J46">
-        <v>0</v>
-      </c>
       <c r="K46">
         <v>0</v>
       </c>
@@ -6354,41 +6654,44 @@
       <c r="T46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U46">
+        <v>0</v>
+      </c>
+      <c r="V46">
+        <v>0</v>
+      </c>
+      <c r="W46">
+        <v>0</v>
+      </c>
+      <c r="X46">
+        <v>0</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>55</v>
       </c>
       <c r="B47" t="s">
-        <v>128</v>
-      </c>
-      <c r="C47">
+        <v>160</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="I47">
         <v>-4</v>
       </c>
-      <c r="D47">
+      <c r="J47">
         <v>-10</v>
       </c>
-      <c r="E47">
+      <c r="K47">
         <v>-1</v>
       </c>
-      <c r="F47">
-        <v>0</v>
-      </c>
-      <c r="G47">
-        <v>0</v>
-      </c>
-      <c r="H47">
-        <v>0</v>
-      </c>
-      <c r="I47">
-        <v>0</v>
-      </c>
-      <c r="J47">
-        <v>0</v>
-      </c>
-      <c r="K47">
-        <v>0</v>
-      </c>
       <c r="L47">
         <v>0</v>
       </c>
@@ -6416,38 +6719,41 @@
       <c r="T47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U47">
+        <v>0</v>
+      </c>
+      <c r="V47">
+        <v>0</v>
+      </c>
+      <c r="W47">
+        <v>0</v>
+      </c>
+      <c r="X47">
+        <v>0</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>52</v>
       </c>
       <c r="B48" t="s">
-        <v>128</v>
-      </c>
-      <c r="C48">
+        <v>160</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="I48">
         <v>-4</v>
       </c>
-      <c r="D48">
+      <c r="J48">
         <v>-9</v>
       </c>
-      <c r="E48">
-        <v>0</v>
-      </c>
-      <c r="F48">
-        <v>0</v>
-      </c>
-      <c r="G48">
-        <v>0</v>
-      </c>
-      <c r="H48">
-        <v>0</v>
-      </c>
-      <c r="I48">
-        <v>0</v>
-      </c>
-      <c r="J48">
-        <v>0</v>
-      </c>
       <c r="K48">
         <v>0</v>
       </c>
@@ -6478,53 +6784,56 @@
       <c r="T48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U48">
+        <v>0</v>
+      </c>
+      <c r="V48">
+        <v>0</v>
+      </c>
+      <c r="W48">
+        <v>0</v>
+      </c>
+      <c r="X48">
+        <v>0</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>59</v>
       </c>
       <c r="B49" t="s">
-        <v>128</v>
-      </c>
-      <c r="C49">
+        <v>160</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="I49">
         <v>-3</v>
       </c>
-      <c r="D49">
+      <c r="J49">
         <v>-7</v>
       </c>
-      <c r="E49">
-        <v>0</v>
-      </c>
-      <c r="F49">
-        <v>0</v>
-      </c>
-      <c r="G49">
-        <v>0</v>
-      </c>
-      <c r="H49">
-        <v>0</v>
-      </c>
-      <c r="I49">
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>0</v>
+      </c>
+      <c r="O49">
         <v>-1</v>
       </c>
-      <c r="J49">
-        <v>0</v>
-      </c>
-      <c r="K49">
-        <v>0</v>
-      </c>
-      <c r="L49">
-        <v>0</v>
-      </c>
-      <c r="M49">
-        <v>0</v>
-      </c>
-      <c r="N49">
-        <v>0</v>
-      </c>
-      <c r="O49">
-        <v>0</v>
-      </c>
       <c r="P49">
         <v>0</v>
       </c>
@@ -6540,44 +6849,47 @@
       <c r="T49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U49">
+        <v>0</v>
+      </c>
+      <c r="V49">
+        <v>0</v>
+      </c>
+      <c r="W49">
+        <v>0</v>
+      </c>
+      <c r="X49">
+        <v>0</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>6</v>
       </c>
       <c r="B50" t="s">
-        <v>128</v>
-      </c>
-      <c r="C50">
+        <v>160</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="I50">
         <v>-2</v>
       </c>
-      <c r="D50">
+      <c r="J50">
         <v>-4</v>
       </c>
-      <c r="E50">
+      <c r="K50">
         <v>-1</v>
       </c>
-      <c r="F50">
+      <c r="L50">
         <v>-1</v>
       </c>
-      <c r="G50">
-        <v>0</v>
-      </c>
-      <c r="H50">
-        <v>0</v>
-      </c>
-      <c r="I50">
-        <v>0</v>
-      </c>
-      <c r="J50">
-        <v>0</v>
-      </c>
-      <c r="K50">
-        <v>0</v>
-      </c>
-      <c r="L50">
-        <v>0</v>
-      </c>
       <c r="M50">
         <v>0</v>
       </c>
@@ -6602,38 +6914,41 @@
       <c r="T50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U50">
+        <v>0</v>
+      </c>
+      <c r="V50">
+        <v>0</v>
+      </c>
+      <c r="W50">
+        <v>0</v>
+      </c>
+      <c r="X50">
+        <v>0</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>9</v>
       </c>
       <c r="B51" t="s">
-        <v>128</v>
-      </c>
-      <c r="C51">
+        <v>160</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="I51">
         <v>-3</v>
       </c>
-      <c r="D51">
+      <c r="J51">
         <v>-5</v>
       </c>
-      <c r="E51">
-        <v>0</v>
-      </c>
-      <c r="F51">
-        <v>0</v>
-      </c>
-      <c r="G51">
-        <v>0</v>
-      </c>
-      <c r="H51">
-        <v>0</v>
-      </c>
-      <c r="I51">
-        <v>0</v>
-      </c>
-      <c r="J51">
-        <v>0</v>
-      </c>
       <c r="K51">
         <v>0</v>
       </c>
@@ -6664,44 +6979,47 @@
       <c r="T51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U51">
+        <v>0</v>
+      </c>
+      <c r="V51">
+        <v>0</v>
+      </c>
+      <c r="W51">
+        <v>0</v>
+      </c>
+      <c r="X51">
+        <v>0</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>38</v>
       </c>
       <c r="B52" t="s">
-        <v>128</v>
-      </c>
-      <c r="C52">
+        <v>160</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="I52">
         <v>-3</v>
       </c>
-      <c r="D52">
+      <c r="J52">
         <v>-6</v>
       </c>
-      <c r="E52">
+      <c r="K52">
         <v>-1</v>
       </c>
-      <c r="F52">
+      <c r="L52">
         <v>-1</v>
       </c>
-      <c r="G52">
-        <v>0</v>
-      </c>
-      <c r="H52">
-        <v>0</v>
-      </c>
-      <c r="I52">
-        <v>0</v>
-      </c>
-      <c r="J52">
-        <v>0</v>
-      </c>
-      <c r="K52">
-        <v>0</v>
-      </c>
-      <c r="L52">
-        <v>0</v>
-      </c>
       <c r="M52">
         <v>0</v>
       </c>
@@ -6726,41 +7044,44 @@
       <c r="T52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U52">
+        <v>0</v>
+      </c>
+      <c r="V52">
+        <v>0</v>
+      </c>
+      <c r="W52">
+        <v>0</v>
+      </c>
+      <c r="X52">
+        <v>0</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>20</v>
       </c>
       <c r="B53" t="s">
-        <v>128</v>
-      </c>
-      <c r="C53">
+        <v>160</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="I53">
         <v>-4</v>
       </c>
-      <c r="D53">
+      <c r="J53">
         <v>-10</v>
       </c>
-      <c r="E53">
+      <c r="K53">
         <v>-3</v>
       </c>
-      <c r="F53">
-        <v>0</v>
-      </c>
-      <c r="G53">
-        <v>0</v>
-      </c>
-      <c r="H53">
-        <v>0</v>
-      </c>
-      <c r="I53">
-        <v>0</v>
-      </c>
-      <c r="J53">
-        <v>0</v>
-      </c>
-      <c r="K53">
-        <v>0</v>
-      </c>
       <c r="L53">
         <v>0</v>
       </c>
@@ -6788,44 +7109,47 @@
       <c r="T53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U53">
+        <v>0</v>
+      </c>
+      <c r="V53">
+        <v>0</v>
+      </c>
+      <c r="W53">
+        <v>0</v>
+      </c>
+      <c r="X53">
+        <v>0</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>10</v>
       </c>
       <c r="B54" t="s">
-        <v>128</v>
-      </c>
-      <c r="C54">
+        <v>160</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+      <c r="I54">
         <v>-1</v>
       </c>
-      <c r="D54">
+      <c r="J54">
         <v>-3</v>
       </c>
-      <c r="E54">
-        <v>0</v>
-      </c>
-      <c r="F54">
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
         <v>-1</v>
       </c>
-      <c r="G54">
-        <v>0</v>
-      </c>
-      <c r="H54">
-        <v>0</v>
-      </c>
-      <c r="I54">
-        <v>0</v>
-      </c>
-      <c r="J54">
-        <v>0</v>
-      </c>
-      <c r="K54">
-        <v>0</v>
-      </c>
-      <c r="L54">
-        <v>0</v>
-      </c>
       <c r="M54">
         <v>0</v>
       </c>
@@ -6850,50 +7174,53 @@
       <c r="T54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U54">
+        <v>0</v>
+      </c>
+      <c r="V54">
+        <v>0</v>
+      </c>
+      <c r="W54">
+        <v>0</v>
+      </c>
+      <c r="X54">
+        <v>0</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B55" t="s">
-        <v>128</v>
-      </c>
-      <c r="C55">
+        <v>160</v>
+      </c>
+      <c r="E55">
+        <v>1</v>
+      </c>
+      <c r="I55">
         <v>-1</v>
       </c>
-      <c r="D55">
+      <c r="J55">
         <v>-4</v>
       </c>
-      <c r="E55">
-        <v>0</v>
-      </c>
-      <c r="F55">
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
         <v>-1</v>
       </c>
-      <c r="G55">
-        <v>0</v>
-      </c>
-      <c r="H55">
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
         <v>-1</v>
       </c>
-      <c r="I55">
-        <v>0</v>
-      </c>
-      <c r="J55">
-        <v>0</v>
-      </c>
-      <c r="K55">
-        <v>0</v>
-      </c>
-      <c r="L55">
-        <v>0</v>
-      </c>
-      <c r="M55">
-        <v>0</v>
-      </c>
-      <c r="N55">
-        <v>0</v>
-      </c>
       <c r="O55">
         <v>0</v>
       </c>
@@ -6912,44 +7239,47 @@
       <c r="T55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U55">
+        <v>0</v>
+      </c>
+      <c r="V55">
+        <v>0</v>
+      </c>
+      <c r="W55">
+        <v>0</v>
+      </c>
+      <c r="X55">
+        <v>0</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>72</v>
       </c>
       <c r="B56" t="s">
-        <v>128</v>
-      </c>
-      <c r="C56">
+        <v>160</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="I56">
         <v>-2</v>
       </c>
-      <c r="D56">
+      <c r="J56">
         <v>-5</v>
       </c>
-      <c r="E56">
-        <v>0</v>
-      </c>
-      <c r="F56">
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
         <v>-1</v>
       </c>
-      <c r="G56">
-        <v>0</v>
-      </c>
-      <c r="H56">
-        <v>0</v>
-      </c>
-      <c r="I56">
-        <v>0</v>
-      </c>
-      <c r="J56">
-        <v>0</v>
-      </c>
-      <c r="K56">
-        <v>0</v>
-      </c>
-      <c r="L56">
-        <v>0</v>
-      </c>
       <c r="M56">
         <v>0</v>
       </c>
@@ -6974,50 +7304,53 @@
       <c r="T56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U56">
+        <v>0</v>
+      </c>
+      <c r="V56">
+        <v>0</v>
+      </c>
+      <c r="W56">
+        <v>0</v>
+      </c>
+      <c r="X56">
+        <v>0</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B57" t="s">
-        <v>128</v>
-      </c>
-      <c r="C57">
+        <v>160</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+      <c r="I57">
         <v>-2</v>
       </c>
-      <c r="D57">
+      <c r="J57">
         <v>-6</v>
       </c>
-      <c r="E57">
-        <v>0</v>
-      </c>
-      <c r="F57">
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
         <v>-4</v>
       </c>
-      <c r="G57">
-        <v>0</v>
-      </c>
-      <c r="H57">
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
         <v>-1</v>
       </c>
-      <c r="I57">
-        <v>0</v>
-      </c>
-      <c r="J57">
-        <v>0</v>
-      </c>
-      <c r="K57">
-        <v>0</v>
-      </c>
-      <c r="L57">
-        <v>0</v>
-      </c>
-      <c r="M57">
-        <v>0</v>
-      </c>
-      <c r="N57">
-        <v>0</v>
-      </c>
       <c r="O57">
         <v>0</v>
       </c>
@@ -7036,38 +7369,41 @@
       <c r="T57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U57">
+        <v>0</v>
+      </c>
+      <c r="V57">
+        <v>0</v>
+      </c>
+      <c r="W57">
+        <v>0</v>
+      </c>
+      <c r="X57">
+        <v>0</v>
+      </c>
+      <c r="Y57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B58" t="s">
-        <v>128</v>
-      </c>
-      <c r="C58">
+        <v>160</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+      <c r="I58">
         <v>-1</v>
       </c>
-      <c r="D58">
+      <c r="J58">
         <v>-3</v>
       </c>
-      <c r="E58">
-        <v>0</v>
-      </c>
-      <c r="F58">
-        <v>0</v>
-      </c>
-      <c r="G58">
-        <v>0</v>
-      </c>
-      <c r="H58">
-        <v>0</v>
-      </c>
-      <c r="I58">
-        <v>0</v>
-      </c>
-      <c r="J58">
-        <v>0</v>
-      </c>
       <c r="K58">
         <v>0</v>
       </c>
@@ -7078,58 +7414,61 @@
         <v>0</v>
       </c>
       <c r="N58">
+        <v>0</v>
+      </c>
+      <c r="O58">
+        <v>0</v>
+      </c>
+      <c r="P58">
+        <v>0</v>
+      </c>
+      <c r="Q58">
+        <v>0</v>
+      </c>
+      <c r="R58">
+        <v>0</v>
+      </c>
+      <c r="S58">
+        <v>0</v>
+      </c>
+      <c r="T58">
         <v>-1</v>
       </c>
-      <c r="O58">
-        <v>0</v>
-      </c>
-      <c r="P58">
-        <v>0</v>
-      </c>
-      <c r="Q58">
-        <v>0</v>
-      </c>
-      <c r="R58">
-        <v>0</v>
-      </c>
-      <c r="S58">
-        <v>0</v>
-      </c>
-      <c r="T58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U58">
+        <v>0</v>
+      </c>
+      <c r="V58">
+        <v>0</v>
+      </c>
+      <c r="W58">
+        <v>0</v>
+      </c>
+      <c r="X58">
+        <v>0</v>
+      </c>
+      <c r="Y58">
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>84</v>
       </c>
       <c r="B59" t="s">
-        <v>128</v>
-      </c>
-      <c r="C59">
+        <v>160</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
+      <c r="I59">
         <v>-3</v>
       </c>
-      <c r="D59">
+      <c r="J59">
         <v>-7</v>
       </c>
-      <c r="E59">
-        <v>0</v>
-      </c>
-      <c r="F59">
-        <v>0</v>
-      </c>
-      <c r="G59">
-        <v>0</v>
-      </c>
-      <c r="H59">
-        <v>0</v>
-      </c>
-      <c r="I59">
-        <v>0</v>
-      </c>
-      <c r="J59">
-        <v>0</v>
-      </c>
       <c r="K59">
         <v>0</v>
       </c>
@@ -7160,41 +7499,44 @@
       <c r="T59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U59">
+        <v>0</v>
+      </c>
+      <c r="V59">
+        <v>0</v>
+      </c>
+      <c r="W59">
+        <v>0</v>
+      </c>
+      <c r="X59">
+        <v>0</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>76</v>
       </c>
       <c r="B60" t="s">
-        <v>128</v>
-      </c>
-      <c r="C60">
+        <v>160</v>
+      </c>
+      <c r="E60">
+        <v>1</v>
+      </c>
+      <c r="I60">
         <v>-9</v>
       </c>
-      <c r="D60">
+      <c r="J60">
         <v>-8</v>
       </c>
-      <c r="E60">
+      <c r="K60">
         <v>-1</v>
       </c>
-      <c r="F60">
-        <v>0</v>
-      </c>
-      <c r="G60">
-        <v>0</v>
-      </c>
-      <c r="H60">
-        <v>0</v>
-      </c>
-      <c r="I60">
-        <v>0</v>
-      </c>
-      <c r="J60">
-        <v>0</v>
-      </c>
-      <c r="K60">
-        <v>0</v>
-      </c>
       <c r="L60">
         <v>0</v>
       </c>
@@ -7222,44 +7564,47 @@
       <c r="T60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U60">
+        <v>0</v>
+      </c>
+      <c r="V60">
+        <v>0</v>
+      </c>
+      <c r="W60">
+        <v>0</v>
+      </c>
+      <c r="X60">
+        <v>0</v>
+      </c>
+      <c r="Y60">
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>80</v>
       </c>
       <c r="B61" t="s">
-        <v>128</v>
-      </c>
-      <c r="C61">
+        <v>160</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+      <c r="I61">
         <v>-7</v>
       </c>
-      <c r="D61">
+      <c r="J61">
         <v>-7</v>
       </c>
-      <c r="E61">
-        <v>0</v>
-      </c>
-      <c r="F61">
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
         <v>-1</v>
       </c>
-      <c r="G61">
-        <v>0</v>
-      </c>
-      <c r="H61">
-        <v>0</v>
-      </c>
-      <c r="I61">
-        <v>0</v>
-      </c>
-      <c r="J61">
-        <v>0</v>
-      </c>
-      <c r="K61">
-        <v>0</v>
-      </c>
-      <c r="L61">
-        <v>0</v>
-      </c>
       <c r="M61">
         <v>0</v>
       </c>
@@ -7284,50 +7629,53 @@
       <c r="T61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U61">
+        <v>0</v>
+      </c>
+      <c r="V61">
+        <v>0</v>
+      </c>
+      <c r="W61">
+        <v>0</v>
+      </c>
+      <c r="X61">
+        <v>0</v>
+      </c>
+      <c r="Y61">
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>109</v>
       </c>
       <c r="B62" t="s">
-        <v>128</v>
-      </c>
-      <c r="C62">
+        <v>160</v>
+      </c>
+      <c r="E62">
+        <v>1</v>
+      </c>
+      <c r="I62">
         <v>-7</v>
       </c>
-      <c r="D62">
+      <c r="J62">
         <v>-8</v>
       </c>
-      <c r="E62">
-        <v>0</v>
-      </c>
-      <c r="F62">
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
         <v>-4</v>
       </c>
-      <c r="G62">
-        <v>0</v>
-      </c>
-      <c r="H62">
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
         <v>-1</v>
       </c>
-      <c r="I62">
-        <v>0</v>
-      </c>
-      <c r="J62">
-        <v>0</v>
-      </c>
-      <c r="K62">
-        <v>0</v>
-      </c>
-      <c r="L62">
-        <v>0</v>
-      </c>
-      <c r="M62">
-        <v>0</v>
-      </c>
-      <c r="N62">
-        <v>0</v>
-      </c>
       <c r="O62">
         <v>0</v>
       </c>
@@ -7344,6 +7692,804 @@
         <v>0</v>
       </c>
       <c r="T62">
+        <v>0</v>
+      </c>
+      <c r="U62">
+        <v>0</v>
+      </c>
+      <c r="V62">
+        <v>0</v>
+      </c>
+      <c r="W62">
+        <v>0</v>
+      </c>
+      <c r="X62">
+        <v>0</v>
+      </c>
+      <c r="Y62">
+        <v>0</v>
+      </c>
+      <c r="Z62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>4</v>
+      </c>
+      <c r="B63" t="s">
+        <v>160</v>
+      </c>
+      <c r="H63">
+        <v>1</v>
+      </c>
+      <c r="I63">
+        <v>-1</v>
+      </c>
+      <c r="J63">
+        <v>-2</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>0</v>
+      </c>
+      <c r="O63">
+        <v>-1</v>
+      </c>
+      <c r="P63">
+        <v>0</v>
+      </c>
+      <c r="Q63">
+        <v>0</v>
+      </c>
+      <c r="R63">
+        <v>0</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>0</v>
+      </c>
+      <c r="U63">
+        <v>0</v>
+      </c>
+      <c r="V63">
+        <v>0</v>
+      </c>
+      <c r="W63">
+        <v>0</v>
+      </c>
+      <c r="X63">
+        <v>0</v>
+      </c>
+      <c r="Y63">
+        <v>0</v>
+      </c>
+      <c r="Z63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>34</v>
+      </c>
+      <c r="B64" t="s">
+        <v>160</v>
+      </c>
+      <c r="H64">
+        <v>1</v>
+      </c>
+      <c r="I64">
+        <v>-3</v>
+      </c>
+      <c r="J64">
+        <v>-4</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>-2</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>0</v>
+      </c>
+      <c r="O64">
+        <v>0</v>
+      </c>
+      <c r="P64">
+        <v>0</v>
+      </c>
+      <c r="Q64">
+        <v>0</v>
+      </c>
+      <c r="R64">
+        <v>0</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>0</v>
+      </c>
+      <c r="U64">
+        <v>0</v>
+      </c>
+      <c r="V64">
+        <v>0</v>
+      </c>
+      <c r="W64">
+        <v>0</v>
+      </c>
+      <c r="X64">
+        <v>0</v>
+      </c>
+      <c r="Y64">
+        <v>0</v>
+      </c>
+      <c r="Z64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>13</v>
+      </c>
+      <c r="B65" t="s">
+        <v>160</v>
+      </c>
+      <c r="H65">
+        <v>1</v>
+      </c>
+      <c r="I65">
+        <v>-4</v>
+      </c>
+      <c r="J65">
+        <v>-8</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>0</v>
+      </c>
+      <c r="O65">
+        <v>0</v>
+      </c>
+      <c r="P65">
+        <v>0</v>
+      </c>
+      <c r="Q65">
+        <v>0</v>
+      </c>
+      <c r="R65">
+        <v>0</v>
+      </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <v>0</v>
+      </c>
+      <c r="U65">
+        <v>0</v>
+      </c>
+      <c r="V65">
+        <v>0</v>
+      </c>
+      <c r="W65">
+        <v>0</v>
+      </c>
+      <c r="X65">
+        <v>0</v>
+      </c>
+      <c r="Y65">
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>55</v>
+      </c>
+      <c r="B66" t="s">
+        <v>160</v>
+      </c>
+      <c r="H66">
+        <v>1</v>
+      </c>
+      <c r="I66">
+        <v>-4</v>
+      </c>
+      <c r="J66">
+        <v>-9</v>
+      </c>
+      <c r="K66">
+        <v>-1</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>0</v>
+      </c>
+      <c r="O66">
+        <v>0</v>
+      </c>
+      <c r="P66">
+        <v>0</v>
+      </c>
+      <c r="Q66">
+        <v>0</v>
+      </c>
+      <c r="R66">
+        <v>0</v>
+      </c>
+      <c r="S66">
+        <v>0</v>
+      </c>
+      <c r="T66">
+        <v>0</v>
+      </c>
+      <c r="U66">
+        <v>0</v>
+      </c>
+      <c r="V66">
+        <v>0</v>
+      </c>
+      <c r="W66">
+        <v>0</v>
+      </c>
+      <c r="X66">
+        <v>0</v>
+      </c>
+      <c r="Y66">
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>52</v>
+      </c>
+      <c r="B67" t="s">
+        <v>160</v>
+      </c>
+      <c r="H67">
+        <v>1</v>
+      </c>
+      <c r="I67">
+        <v>-4</v>
+      </c>
+      <c r="J67">
+        <v>-8</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>0</v>
+      </c>
+      <c r="O67">
+        <v>0</v>
+      </c>
+      <c r="P67">
+        <v>0</v>
+      </c>
+      <c r="Q67">
+        <v>0</v>
+      </c>
+      <c r="R67">
+        <v>0</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <v>0</v>
+      </c>
+      <c r="U67">
+        <v>0</v>
+      </c>
+      <c r="V67">
+        <v>0</v>
+      </c>
+      <c r="W67">
+        <v>0</v>
+      </c>
+      <c r="X67">
+        <v>0</v>
+      </c>
+      <c r="Y67">
+        <v>0</v>
+      </c>
+      <c r="Z67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>59</v>
+      </c>
+      <c r="B68" t="s">
+        <v>160</v>
+      </c>
+      <c r="H68">
+        <v>1</v>
+      </c>
+      <c r="I68">
+        <v>-3</v>
+      </c>
+      <c r="J68">
+        <v>-6</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>0</v>
+      </c>
+      <c r="O68">
+        <v>-1</v>
+      </c>
+      <c r="P68">
+        <v>0</v>
+      </c>
+      <c r="Q68">
+        <v>0</v>
+      </c>
+      <c r="R68">
+        <v>0</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="T68">
+        <v>0</v>
+      </c>
+      <c r="U68">
+        <v>0</v>
+      </c>
+      <c r="V68">
+        <v>0</v>
+      </c>
+      <c r="W68">
+        <v>0</v>
+      </c>
+      <c r="X68">
+        <v>0</v>
+      </c>
+      <c r="Y68">
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>38</v>
+      </c>
+      <c r="B69" t="s">
+        <v>160</v>
+      </c>
+      <c r="H69">
+        <v>1</v>
+      </c>
+      <c r="I69">
+        <v>-3</v>
+      </c>
+      <c r="J69">
+        <v>-5</v>
+      </c>
+      <c r="K69">
+        <v>-1</v>
+      </c>
+      <c r="L69">
+        <v>-1</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>0</v>
+      </c>
+      <c r="O69">
+        <v>0</v>
+      </c>
+      <c r="P69">
+        <v>0</v>
+      </c>
+      <c r="Q69">
+        <v>0</v>
+      </c>
+      <c r="R69">
+        <v>0</v>
+      </c>
+      <c r="S69">
+        <v>0</v>
+      </c>
+      <c r="T69">
+        <v>0</v>
+      </c>
+      <c r="U69">
+        <v>0</v>
+      </c>
+      <c r="V69">
+        <v>0</v>
+      </c>
+      <c r="W69">
+        <v>0</v>
+      </c>
+      <c r="X69">
+        <v>0</v>
+      </c>
+      <c r="Y69">
+        <v>0</v>
+      </c>
+      <c r="Z69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>20</v>
+      </c>
+      <c r="B70" t="s">
+        <v>160</v>
+      </c>
+      <c r="H70">
+        <v>1</v>
+      </c>
+      <c r="I70">
+        <v>-4</v>
+      </c>
+      <c r="J70">
+        <v>-9</v>
+      </c>
+      <c r="K70">
+        <v>-3</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>0</v>
+      </c>
+      <c r="O70">
+        <v>0</v>
+      </c>
+      <c r="P70">
+        <v>0</v>
+      </c>
+      <c r="Q70">
+        <v>0</v>
+      </c>
+      <c r="R70">
+        <v>0</v>
+      </c>
+      <c r="S70">
+        <v>0</v>
+      </c>
+      <c r="T70">
+        <v>0</v>
+      </c>
+      <c r="U70">
+        <v>0</v>
+      </c>
+      <c r="V70">
+        <v>0</v>
+      </c>
+      <c r="W70">
+        <v>0</v>
+      </c>
+      <c r="X70">
+        <v>0</v>
+      </c>
+      <c r="Y70">
+        <v>0</v>
+      </c>
+      <c r="Z70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>138</v>
+      </c>
+      <c r="B71" t="s">
+        <v>160</v>
+      </c>
+      <c r="H71">
+        <v>1</v>
+      </c>
+      <c r="I71">
+        <v>-1</v>
+      </c>
+      <c r="J71">
+        <v>-2</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <v>0</v>
+      </c>
+      <c r="O71">
+        <v>0</v>
+      </c>
+      <c r="P71">
+        <v>0</v>
+      </c>
+      <c r="Q71">
+        <v>0</v>
+      </c>
+      <c r="R71">
+        <v>0</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <v>-1</v>
+      </c>
+      <c r="U71">
+        <v>0</v>
+      </c>
+      <c r="V71">
+        <v>0</v>
+      </c>
+      <c r="W71">
+        <v>0</v>
+      </c>
+      <c r="X71">
+        <v>0</v>
+      </c>
+      <c r="Y71">
+        <v>0</v>
+      </c>
+      <c r="Z71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>76</v>
+      </c>
+      <c r="B72" t="s">
+        <v>160</v>
+      </c>
+      <c r="H72">
+        <v>1</v>
+      </c>
+      <c r="I72">
+        <v>-9</v>
+      </c>
+      <c r="J72">
+        <v>-7</v>
+      </c>
+      <c r="K72">
+        <v>-1</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>0</v>
+      </c>
+      <c r="O72">
+        <v>0</v>
+      </c>
+      <c r="P72">
+        <v>0</v>
+      </c>
+      <c r="Q72">
+        <v>0</v>
+      </c>
+      <c r="R72">
+        <v>0</v>
+      </c>
+      <c r="S72">
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <v>0</v>
+      </c>
+      <c r="U72">
+        <v>0</v>
+      </c>
+      <c r="V72">
+        <v>0</v>
+      </c>
+      <c r="W72">
+        <v>0</v>
+      </c>
+      <c r="X72">
+        <v>0</v>
+      </c>
+      <c r="Y72">
+        <v>0</v>
+      </c>
+      <c r="Z72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>80</v>
+      </c>
+      <c r="B73" t="s">
+        <v>160</v>
+      </c>
+      <c r="H73">
+        <v>1</v>
+      </c>
+      <c r="I73">
+        <v>-7</v>
+      </c>
+      <c r="J73">
+        <v>-6</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>-1</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>0</v>
+      </c>
+      <c r="O73">
+        <v>0</v>
+      </c>
+      <c r="P73">
+        <v>0</v>
+      </c>
+      <c r="Q73">
+        <v>0</v>
+      </c>
+      <c r="R73">
+        <v>0</v>
+      </c>
+      <c r="S73">
+        <v>0</v>
+      </c>
+      <c r="T73">
+        <v>0</v>
+      </c>
+      <c r="U73">
+        <v>0</v>
+      </c>
+      <c r="V73">
+        <v>0</v>
+      </c>
+      <c r="W73">
+        <v>0</v>
+      </c>
+      <c r="X73">
+        <v>0</v>
+      </c>
+      <c r="Y73">
+        <v>0</v>
+      </c>
+      <c r="Z73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>109</v>
+      </c>
+      <c r="B74" t="s">
+        <v>160</v>
+      </c>
+      <c r="H74">
+        <v>1</v>
+      </c>
+      <c r="I74">
+        <v>-7</v>
+      </c>
+      <c r="J74">
+        <v>-7</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>-4</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>-1</v>
+      </c>
+      <c r="O74">
+        <v>0</v>
+      </c>
+      <c r="P74">
+        <v>0</v>
+      </c>
+      <c r="Q74">
+        <v>0</v>
+      </c>
+      <c r="R74">
+        <v>0</v>
+      </c>
+      <c r="S74">
+        <v>0</v>
+      </c>
+      <c r="T74">
+        <v>0</v>
+      </c>
+      <c r="U74">
+        <v>0</v>
+      </c>
+      <c r="V74">
+        <v>0</v>
+      </c>
+      <c r="W74">
+        <v>0</v>
+      </c>
+      <c r="X74">
+        <v>0</v>
+      </c>
+      <c r="Y74">
+        <v>0</v>
+      </c>
+      <c r="Z74">
         <v>0</v>
       </c>
     </row>
@@ -7357,7 +8503,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
@@ -7403,13 +8549,13 @@
         <v>55</v>
       </c>
       <c r="L1" t="s">
+        <v>129</v>
+      </c>
+      <c r="M1" t="s">
+        <v>130</v>
+      </c>
+      <c r="N1" t="s">
         <v>131</v>
-      </c>
-      <c r="M1" t="s">
-        <v>132</v>
-      </c>
-      <c r="N1" t="s">
-        <v>133</v>
       </c>
       <c r="O1" t="s">
         <v>12</v>
@@ -8114,7 +9260,7 @@
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
@@ -8300,7 +9446,7 @@
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B16" t="s">
         <v>4</v>
@@ -8485,13 +9631,13 @@
         <v>55</v>
       </c>
       <c r="L1" t="s">
+        <v>129</v>
+      </c>
+      <c r="M1" t="s">
+        <v>130</v>
+      </c>
+      <c r="N1" t="s">
         <v>131</v>
-      </c>
-      <c r="M1" t="s">
-        <v>132</v>
-      </c>
-      <c r="N1" t="s">
-        <v>133</v>
       </c>
       <c r="O1" t="s">
         <v>12</v>

--- a/resources.xlsx
+++ b/resources.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="13650" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="13650" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="atoms" sheetId="2" r:id="rId1"/>
@@ -466,9 +466,6 @@
     <t>tyr</t>
   </si>
   <si>
-    <t>C9H10O5N</t>
-  </si>
-  <si>
     <t>C3H5ONSe</t>
   </si>
   <si>
@@ -506,6 +503,9 @@
   </si>
   <si>
     <t>sidechain</t>
+  </si>
+  <si>
+    <t>C9H10O5NP</t>
   </si>
 </sst>
 </file>
@@ -1615,8 +1615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1646,7 +1646,7 @@
         <v>135</v>
       </c>
       <c r="F1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
@@ -1871,7 +1871,7 @@
         <v>3</v>
       </c>
       <c r="G4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H4">
         <v>6</v>
@@ -1945,7 +1945,7 @@
         <v>2</v>
       </c>
       <c r="G5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H5">
         <v>5</v>
@@ -2898,7 +2898,7 @@
         <v>136</v>
       </c>
       <c r="D18" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E18">
         <v>-1</v>
@@ -3046,7 +3046,7 @@
         <v>137</v>
       </c>
       <c r="D20" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E20">
         <v>-1</v>
@@ -3120,7 +3120,7 @@
         <v>138</v>
       </c>
       <c r="D21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -3342,7 +3342,7 @@
         <v>109</v>
       </c>
       <c r="D24" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="E24">
         <v>-1</v>
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -3489,7 +3489,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H39" sqref="H39"/>
     </sheetView>
@@ -3520,7 +3520,7 @@
         <v>113</v>
       </c>
       <c r="D1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E1" t="s">
         <v>114</v>
@@ -3529,10 +3529,10 @@
         <v>115</v>
       </c>
       <c r="G1" t="s">
+        <v>158</v>
+      </c>
+      <c r="H1" t="s">
         <v>159</v>
-      </c>
-      <c r="H1" t="s">
-        <v>160</v>
       </c>
       <c r="I1" t="s">
         <v>4</v>
@@ -3594,7 +3594,7 @@
         <v>27</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -3662,7 +3662,7 @@
         <v>27</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -3730,7 +3730,7 @@
         <v>34</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -3798,7 +3798,7 @@
         <v>34</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -3866,7 +3866,7 @@
         <v>55</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -3934,7 +3934,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -4002,7 +4002,7 @@
         <v>38</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -4070,7 +4070,7 @@
         <v>20</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -4138,7 +4138,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -4206,7 +4206,7 @@
         <v>136</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -4274,7 +4274,7 @@
         <v>72</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -4342,7 +4342,7 @@
         <v>137</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -4410,7 +4410,7 @@
         <v>109</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -4478,7 +4478,7 @@
         <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -4549,7 +4549,7 @@
         <v>27</v>
       </c>
       <c r="B16" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -4620,7 +4620,7 @@
         <v>34</v>
       </c>
       <c r="B17" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -4691,7 +4691,7 @@
         <v>8</v>
       </c>
       <c r="B18" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -4762,7 +4762,7 @@
         <v>5</v>
       </c>
       <c r="B19" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -4833,7 +4833,7 @@
         <v>13</v>
       </c>
       <c r="B20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -4904,7 +4904,7 @@
         <v>13</v>
       </c>
       <c r="B21" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -4975,7 +4975,7 @@
         <v>55</v>
       </c>
       <c r="B22" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -5046,7 +5046,7 @@
         <v>52</v>
       </c>
       <c r="B23" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -5117,7 +5117,7 @@
         <v>59</v>
       </c>
       <c r="B24" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -5188,7 +5188,7 @@
         <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -5259,7 +5259,7 @@
         <v>9</v>
       </c>
       <c r="B26" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -5327,7 +5327,7 @@
         <v>38</v>
       </c>
       <c r="B27" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -5398,7 +5398,7 @@
         <v>20</v>
       </c>
       <c r="B28" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -5469,7 +5469,7 @@
         <v>10</v>
       </c>
       <c r="B29" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -5537,7 +5537,7 @@
         <v>136</v>
       </c>
       <c r="B30" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -5605,7 +5605,7 @@
         <v>72</v>
       </c>
       <c r="B31" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -5673,7 +5673,7 @@
         <v>72</v>
       </c>
       <c r="B32" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D32">
         <v>1</v>
@@ -5741,7 +5741,7 @@
         <v>137</v>
       </c>
       <c r="B33" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -5809,7 +5809,7 @@
         <v>137</v>
       </c>
       <c r="B34" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D34">
         <v>1</v>
@@ -5877,7 +5877,7 @@
         <v>138</v>
       </c>
       <c r="B35" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -5948,7 +5948,7 @@
         <v>84</v>
       </c>
       <c r="B36" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -6016,7 +6016,7 @@
         <v>76</v>
       </c>
       <c r="B37" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -6087,7 +6087,7 @@
         <v>80</v>
       </c>
       <c r="B38" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -6155,7 +6155,7 @@
         <v>109</v>
       </c>
       <c r="B39" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -6223,7 +6223,7 @@
         <v>16</v>
       </c>
       <c r="B40" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E40">
         <v>1</v>
@@ -6288,7 +6288,7 @@
         <v>4</v>
       </c>
       <c r="B41" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E41">
         <v>1</v>
@@ -6353,7 +6353,7 @@
         <v>27</v>
       </c>
       <c r="B42" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E42">
         <v>1</v>
@@ -6418,7 +6418,7 @@
         <v>34</v>
       </c>
       <c r="B43" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E43">
         <v>1</v>
@@ -6483,7 +6483,7 @@
         <v>8</v>
       </c>
       <c r="B44" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E44">
         <v>1</v>
@@ -6548,7 +6548,7 @@
         <v>5</v>
       </c>
       <c r="B45" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E45">
         <v>1</v>
@@ -6613,7 +6613,7 @@
         <v>13</v>
       </c>
       <c r="B46" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E46">
         <v>1</v>
@@ -6678,7 +6678,7 @@
         <v>55</v>
       </c>
       <c r="B47" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E47">
         <v>1</v>
@@ -6743,7 +6743,7 @@
         <v>52</v>
       </c>
       <c r="B48" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E48">
         <v>1</v>
@@ -6808,7 +6808,7 @@
         <v>59</v>
       </c>
       <c r="B49" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E49">
         <v>1</v>
@@ -6873,7 +6873,7 @@
         <v>6</v>
       </c>
       <c r="B50" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E50">
         <v>1</v>
@@ -6938,7 +6938,7 @@
         <v>9</v>
       </c>
       <c r="B51" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E51">
         <v>1</v>
@@ -7003,7 +7003,7 @@
         <v>38</v>
       </c>
       <c r="B52" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E52">
         <v>1</v>
@@ -7068,7 +7068,7 @@
         <v>20</v>
       </c>
       <c r="B53" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E53">
         <v>1</v>
@@ -7133,7 +7133,7 @@
         <v>10</v>
       </c>
       <c r="B54" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E54">
         <v>1</v>
@@ -7198,7 +7198,7 @@
         <v>136</v>
       </c>
       <c r="B55" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E55">
         <v>1</v>
@@ -7263,7 +7263,7 @@
         <v>72</v>
       </c>
       <c r="B56" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E56">
         <v>1</v>
@@ -7328,7 +7328,7 @@
         <v>137</v>
       </c>
       <c r="B57" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E57">
         <v>1</v>
@@ -7393,7 +7393,7 @@
         <v>138</v>
       </c>
       <c r="B58" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E58">
         <v>1</v>
@@ -7458,7 +7458,7 @@
         <v>84</v>
       </c>
       <c r="B59" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E59">
         <v>1</v>
@@ -7523,7 +7523,7 @@
         <v>76</v>
       </c>
       <c r="B60" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E60">
         <v>1</v>
@@ -7588,7 +7588,7 @@
         <v>80</v>
       </c>
       <c r="B61" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E61">
         <v>1</v>
@@ -7653,7 +7653,7 @@
         <v>109</v>
       </c>
       <c r="B62" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E62">
         <v>1</v>
@@ -7718,7 +7718,7 @@
         <v>4</v>
       </c>
       <c r="B63" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H63">
         <v>1</v>
@@ -7783,7 +7783,7 @@
         <v>34</v>
       </c>
       <c r="B64" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H64">
         <v>1</v>
@@ -7848,7 +7848,7 @@
         <v>13</v>
       </c>
       <c r="B65" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H65">
         <v>1</v>
@@ -7913,7 +7913,7 @@
         <v>55</v>
       </c>
       <c r="B66" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H66">
         <v>1</v>
@@ -7978,7 +7978,7 @@
         <v>52</v>
       </c>
       <c r="B67" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H67">
         <v>1</v>
@@ -8043,7 +8043,7 @@
         <v>59</v>
       </c>
       <c r="B68" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H68">
         <v>1</v>
@@ -8108,7 +8108,7 @@
         <v>38</v>
       </c>
       <c r="B69" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H69">
         <v>1</v>
@@ -8173,7 +8173,7 @@
         <v>20</v>
       </c>
       <c r="B70" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H70">
         <v>1</v>
@@ -8238,7 +8238,7 @@
         <v>138</v>
       </c>
       <c r="B71" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H71">
         <v>1</v>
@@ -8303,7 +8303,7 @@
         <v>76</v>
       </c>
       <c r="B72" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H72">
         <v>1</v>
@@ -8368,7 +8368,7 @@
         <v>80</v>
       </c>
       <c r="B73" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H73">
         <v>1</v>
@@ -8433,7 +8433,7 @@
         <v>109</v>
       </c>
       <c r="B74" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H74">
         <v>1</v>
@@ -9260,7 +9260,7 @@
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
@@ -9446,7 +9446,7 @@
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B16" t="s">
         <v>4</v>

--- a/resources.xlsx
+++ b/resources.xlsx
@@ -9,21 +9,24 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="13650" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="13650"/>
   </bookViews>
   <sheets>
     <sheet name="atoms" sheetId="2" r:id="rId1"/>
-    <sheet name="amino_acids" sheetId="1" r:id="rId2"/>
-    <sheet name="losses" sheetId="3" r:id="rId3"/>
-    <sheet name="ion_type_list" sheetId="4" r:id="rId4"/>
-    <sheet name="term" sheetId="5" r:id="rId5"/>
+    <sheet name="amino_acids_norm" sheetId="1" r:id="rId2"/>
+    <sheet name="amino_acids_deut" sheetId="6" r:id="rId3"/>
+    <sheet name="losses" sheetId="3" r:id="rId4"/>
+    <sheet name="ion_type_norm" sheetId="4" r:id="rId5"/>
+    <sheet name="ion_type_deut" sheetId="8" r:id="rId6"/>
+    <sheet name="term_norm" sheetId="5" r:id="rId7"/>
+    <sheet name="term_deut" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="162">
   <si>
     <t>FullName</t>
   </si>
@@ -487,9 +490,6 @@
     <t>-NH3</t>
   </si>
   <si>
-    <t>exchangeable_deuteriums</t>
-  </si>
-  <si>
     <t>d'</t>
   </si>
   <si>
@@ -506,6 +506,12 @@
   </si>
   <si>
     <t>C9H10O5NP</t>
+  </si>
+  <si>
+    <t>D+</t>
+  </si>
+  <si>
+    <t>Deuteron</t>
   </si>
 </sst>
 </file>
@@ -1313,10 +1319,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1555,53 +1561,67 @@
         <v>86</v>
       </c>
       <c r="C16">
-        <f>C3-C18</f>
+        <f>C3-C19</f>
         <v>1.0072764520699999</v>
       </c>
       <c r="D16">
-        <f>D3-D18</f>
+        <f>D3-D19</f>
         <v>1.0074273935818594</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>101</v>
+        <v>161</v>
       </c>
       <c r="B17" t="s">
-        <v>87</v>
+        <v>160</v>
       </c>
       <c r="C17">
-        <v>22.989769280899999</v>
+        <v>2.0135531978000003</v>
       </c>
       <c r="D17">
-        <v>22.989769280899999</v>
+        <v>2.0135531978000003</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C18">
-        <v>5.4858000000000001E-4</v>
+        <v>22.989769280899999</v>
       </c>
       <c r="D18">
-        <v>5.4858000000000001E-4</v>
+        <v>22.989769280899999</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>102</v>
+      </c>
+      <c r="B19" t="s">
+        <v>88</v>
+      </c>
+      <c r="C19">
+        <v>5.4858000000000001E-4</v>
+      </c>
+      <c r="D19">
+        <v>5.4858000000000001E-4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>128</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B20" t="s">
         <v>27</v>
       </c>
-      <c r="C19">
+      <c r="C20">
         <v>2.0141017778000001</v>
       </c>
-      <c r="D19">
+      <c r="D20">
         <v>2.0141017778000001</v>
       </c>
     </row>
@@ -1615,18 +1635,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M29" sqref="M29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U1" sqref="U1:U1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="12.42578125" customWidth="1"/>
     <col min="5" max="5" width="17.140625" customWidth="1"/>
-    <col min="6" max="6" width="21.7109375" customWidth="1"/>
-    <col min="17" max="17" width="7.7109375" customWidth="1"/>
-    <col min="18" max="18" width="6.5703125" customWidth="1"/>
-    <col min="19" max="19" width="6.140625" customWidth="1"/>
+    <col min="16" max="16" width="7.7109375" customWidth="1"/>
+    <col min="17" max="17" width="6.5703125" customWidth="1"/>
+    <col min="18" max="18" width="6.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
@@ -1646,52 +1665,52 @@
         <v>135</v>
       </c>
       <c r="F1" t="s">
-        <v>154</v>
+        <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N1" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="O1" t="s">
-        <v>55</v>
+        <v>129</v>
       </c>
       <c r="P1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="R1" t="s">
-        <v>131</v>
+        <v>12</v>
       </c>
       <c r="S1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="T1" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="U1" t="s">
-        <v>86</v>
+        <v>160</v>
       </c>
       <c r="V1" t="s">
         <v>87</v>
@@ -1720,19 +1739,19 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I2">
         <v>1</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -1794,19 +1813,19 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G3">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H3">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="I3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -1868,19 +1887,19 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G4">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H4">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I4">
         <v>2</v>
       </c>
       <c r="J4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -1942,19 +1961,19 @@
         <v>-1</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -2016,28 +2035,28 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I6">
         <v>1</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -2090,19 +2109,19 @@
         <v>-1</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G7">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H7">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -2164,19 +2183,19 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G8">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H8">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I8">
         <v>2</v>
       </c>
       <c r="J8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -2238,19 +2257,19 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -2312,19 +2331,19 @@
         <v>1</v>
       </c>
       <c r="F10">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G10">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H10">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -2386,19 +2405,19 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G11">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="H11">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="I11">
         <v>1</v>
       </c>
       <c r="J11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -2460,19 +2479,19 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G12">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="H12">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="I12">
         <v>1</v>
       </c>
       <c r="J12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -2534,19 +2553,19 @@
         <v>1</v>
       </c>
       <c r="F13">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G13">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H13">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="I13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -2608,28 +2627,28 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G14">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="H14">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="I14">
         <v>1</v>
       </c>
       <c r="J14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -2682,19 +2701,19 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="G15">
         <v>9</v>
       </c>
       <c r="H15">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="I15">
         <v>1</v>
       </c>
       <c r="J15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -2756,19 +2775,19 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G16">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H16">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I16">
         <v>1</v>
       </c>
       <c r="J16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -2830,19 +2849,19 @@
         <v>0</v>
       </c>
       <c r="F17">
+        <v>3</v>
+      </c>
+      <c r="G17">
+        <v>5</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
         <v>2</v>
       </c>
-      <c r="G17">
-        <v>3</v>
-      </c>
-      <c r="H17">
-        <v>5</v>
-      </c>
-      <c r="I17">
-        <v>1</v>
-      </c>
       <c r="J17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -2907,22 +2926,22 @@
         <v>3</v>
       </c>
       <c r="G18">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H18">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I18">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J18">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -2978,19 +2997,19 @@
         <v>0</v>
       </c>
       <c r="F19">
+        <v>4</v>
+      </c>
+      <c r="G19">
+        <v>7</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
         <v>2</v>
       </c>
-      <c r="G19">
-        <v>4</v>
-      </c>
-      <c r="H19">
-        <v>7</v>
-      </c>
-      <c r="I19">
-        <v>1</v>
-      </c>
       <c r="J19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -3052,25 +3071,25 @@
         <v>-1</v>
       </c>
       <c r="F20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G20">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H20">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I20">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J20">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -3126,19 +3145,19 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G21">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H21">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I21">
         <v>1</v>
       </c>
       <c r="J21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -3159,10 +3178,10 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S21">
         <v>0</v>
@@ -3200,19 +3219,19 @@
         <v>0</v>
       </c>
       <c r="F22">
+        <v>11</v>
+      </c>
+      <c r="G22">
+        <v>10</v>
+      </c>
+      <c r="H22">
         <v>2</v>
       </c>
-      <c r="G22">
-        <v>11</v>
-      </c>
-      <c r="H22">
-        <v>10</v>
-      </c>
       <c r="I22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -3274,19 +3293,19 @@
         <v>-1</v>
       </c>
       <c r="F23">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="G23">
         <v>9</v>
       </c>
       <c r="H23">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="I23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -3342,31 +3361,31 @@
         <v>109</v>
       </c>
       <c r="D24" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E24">
         <v>-1</v>
       </c>
       <c r="F24">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G24">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H24">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I24">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J24">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -3422,19 +3441,19 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G25">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="H25">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="I25">
         <v>1</v>
       </c>
       <c r="J25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -3487,11 +3506,1884 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z74"/>
+  <dimension ref="A1:X25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H39" sqref="H39"/>
+      <selection activeCell="U1" sqref="U1:U1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="12.42578125" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" customWidth="1"/>
+    <col min="16" max="16" width="7.7109375" customWidth="1"/>
+    <col min="17" max="17" width="6.5703125" customWidth="1"/>
+    <col min="18" max="18" width="6.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" t="s">
+        <v>55</v>
+      </c>
+      <c r="O1" t="s">
+        <v>129</v>
+      </c>
+      <c r="P1" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>131</v>
+      </c>
+      <c r="R1" t="s">
+        <v>12</v>
+      </c>
+      <c r="S1" t="s">
+        <v>13</v>
+      </c>
+      <c r="T1" t="s">
+        <v>86</v>
+      </c>
+      <c r="U1" t="s">
+        <v>160</v>
+      </c>
+      <c r="V1" t="s">
+        <v>87</v>
+      </c>
+      <c r="W1" t="s">
+        <v>88</v>
+      </c>
+      <c r="X1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>3</v>
+      </c>
+      <c r="G2">
+        <v>4</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>6</v>
+      </c>
+      <c r="G3">
+        <v>7</v>
+      </c>
+      <c r="H3">
+        <v>4</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>4</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4">
+        <v>2</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5">
+        <v>-1</v>
+      </c>
+      <c r="F5">
+        <v>4</v>
+      </c>
+      <c r="G5">
+        <v>3</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>3</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6">
+        <v>3</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7">
+        <v>-1</v>
+      </c>
+      <c r="F7">
+        <v>5</v>
+      </c>
+      <c r="G7">
+        <v>5</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>3</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>5</v>
+      </c>
+      <c r="G8">
+        <v>5</v>
+      </c>
+      <c r="H8">
+        <v>2</v>
+      </c>
+      <c r="I8">
+        <v>2</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>6</v>
+      </c>
+      <c r="G10">
+        <v>5</v>
+      </c>
+      <c r="H10">
+        <v>3</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>6</v>
+      </c>
+      <c r="G11">
+        <v>10</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>6</v>
+      </c>
+      <c r="G12">
+        <v>10</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>6</v>
+      </c>
+      <c r="G13">
+        <v>9</v>
+      </c>
+      <c r="H13">
+        <v>2</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" t="s">
+        <v>60</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>5</v>
+      </c>
+      <c r="G14">
+        <v>8</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" t="s">
+        <v>63</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>9</v>
+      </c>
+      <c r="G15">
+        <v>8</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" t="s">
+        <v>66</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>5</v>
+      </c>
+      <c r="G16">
+        <v>7</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" t="s">
+        <v>69</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>3</v>
+      </c>
+      <c r="G17">
+        <v>3</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>2</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>143</v>
+      </c>
+      <c r="B18" t="s">
+        <v>144</v>
+      </c>
+      <c r="C18" t="s">
+        <v>136</v>
+      </c>
+      <c r="D18" t="s">
+        <v>149</v>
+      </c>
+      <c r="E18">
+        <v>-1</v>
+      </c>
+      <c r="F18">
+        <v>3</v>
+      </c>
+      <c r="G18">
+        <v>3</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>5</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>70</v>
+      </c>
+      <c r="B19" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19" t="s">
+        <v>72</v>
+      </c>
+      <c r="D19" t="s">
+        <v>73</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>4</v>
+      </c>
+      <c r="G19">
+        <v>5</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>2</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>141</v>
+      </c>
+      <c r="B20" t="s">
+        <v>142</v>
+      </c>
+      <c r="C20" t="s">
+        <v>137</v>
+      </c>
+      <c r="D20" t="s">
+        <v>148</v>
+      </c>
+      <c r="E20">
+        <v>-1</v>
+      </c>
+      <c r="F20">
+        <v>4</v>
+      </c>
+      <c r="G20">
+        <v>5</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>5</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <v>0</v>
+      </c>
+      <c r="W20">
+        <v>0</v>
+      </c>
+      <c r="X20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>139</v>
+      </c>
+      <c r="B21" t="s">
+        <v>140</v>
+      </c>
+      <c r="C21" t="s">
+        <v>138</v>
+      </c>
+      <c r="D21" t="s">
+        <v>147</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>3</v>
+      </c>
+      <c r="G21">
+        <v>3</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>1</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <v>0</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>74</v>
+      </c>
+      <c r="B22" t="s">
+        <v>75</v>
+      </c>
+      <c r="C22" t="s">
+        <v>76</v>
+      </c>
+      <c r="D22" t="s">
+        <v>77</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>11</v>
+      </c>
+      <c r="G22">
+        <v>8</v>
+      </c>
+      <c r="H22">
+        <v>2</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <v>0</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
+      <c r="X22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>78</v>
+      </c>
+      <c r="B23" t="s">
+        <v>79</v>
+      </c>
+      <c r="C23" t="s">
+        <v>80</v>
+      </c>
+      <c r="D23" t="s">
+        <v>81</v>
+      </c>
+      <c r="E23">
+        <v>-1</v>
+      </c>
+      <c r="F23">
+        <v>9</v>
+      </c>
+      <c r="G23">
+        <v>7</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>2</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>145</v>
+      </c>
+      <c r="B24" t="s">
+        <v>146</v>
+      </c>
+      <c r="C24" t="s">
+        <v>109</v>
+      </c>
+      <c r="D24" t="s">
+        <v>159</v>
+      </c>
+      <c r="E24">
+        <v>-1</v>
+      </c>
+      <c r="F24">
+        <v>9</v>
+      </c>
+      <c r="G24">
+        <v>7</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>5</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <v>0</v>
+      </c>
+      <c r="V24">
+        <v>0</v>
+      </c>
+      <c r="W24">
+        <v>0</v>
+      </c>
+      <c r="X24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>82</v>
+      </c>
+      <c r="B25" t="s">
+        <v>83</v>
+      </c>
+      <c r="C25" t="s">
+        <v>84</v>
+      </c>
+      <c r="D25" t="s">
+        <v>85</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>5</v>
+      </c>
+      <c r="G25">
+        <v>8</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>0</v>
+      </c>
+      <c r="T25">
+        <v>0</v>
+      </c>
+      <c r="U25">
+        <v>0</v>
+      </c>
+      <c r="V25">
+        <v>0</v>
+      </c>
+      <c r="W25">
+        <v>0</v>
+      </c>
+      <c r="X25">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AA74"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="X8" sqref="X8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3509,7 +5401,7 @@
     <col min="21" max="21" width="6.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -3520,7 +5412,7 @@
         <v>113</v>
       </c>
       <c r="D1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E1" t="s">
         <v>114</v>
@@ -3529,10 +5421,10 @@
         <v>115</v>
       </c>
       <c r="G1" t="s">
+        <v>157</v>
+      </c>
+      <c r="H1" t="s">
         <v>158</v>
-      </c>
-      <c r="H1" t="s">
-        <v>159</v>
       </c>
       <c r="I1" t="s">
         <v>4</v>
@@ -3580,16 +5472,19 @@
         <v>86</v>
       </c>
       <c r="X1" t="s">
+        <v>160</v>
+      </c>
+      <c r="Y1" t="s">
         <v>87</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>88</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -3656,8 +5551,11 @@
       <c r="Z2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>27</v>
       </c>
@@ -3724,8 +5622,11 @@
       <c r="Z3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>34</v>
       </c>
@@ -3792,8 +5693,11 @@
       <c r="Z4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>34</v>
       </c>
@@ -3860,8 +5764,11 @@
       <c r="Z5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>55</v>
       </c>
@@ -3928,8 +5835,11 @@
       <c r="Z6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -3996,8 +5906,11 @@
       <c r="Z7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>38</v>
       </c>
@@ -4064,8 +5977,11 @@
       <c r="Z8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -4132,8 +6048,11 @@
       <c r="Z9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -4200,8 +6119,11 @@
       <c r="Z10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>136</v>
       </c>
@@ -4268,8 +6190,11 @@
       <c r="Z11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>72</v>
       </c>
@@ -4336,8 +6261,11 @@
       <c r="Z12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>137</v>
       </c>
@@ -4404,8 +6332,11 @@
       <c r="Z13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>109</v>
       </c>
@@ -4472,13 +6403,16 @@
       <c r="Z14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -4543,13 +6477,16 @@
       <c r="Z15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>27</v>
       </c>
       <c r="B16" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -4614,13 +6551,16 @@
       <c r="Z16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>34</v>
       </c>
       <c r="B17" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -4685,13 +6625,16 @@
       <c r="Z17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>8</v>
       </c>
       <c r="B18" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -4756,13 +6699,16 @@
       <c r="Z18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>5</v>
       </c>
       <c r="B19" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -4827,13 +6773,16 @@
       <c r="Z19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>13</v>
       </c>
       <c r="B20" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -4898,13 +6847,16 @@
       <c r="Z20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>13</v>
       </c>
       <c r="B21" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -4969,13 +6921,16 @@
       <c r="Z21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>55</v>
       </c>
       <c r="B22" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -5040,13 +6995,16 @@
       <c r="Z22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>52</v>
       </c>
       <c r="B23" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -5111,13 +7069,16 @@
       <c r="Z23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>59</v>
       </c>
       <c r="B24" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -5182,13 +7143,16 @@
       <c r="Z24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -5253,13 +7217,16 @@
       <c r="Z25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>9</v>
       </c>
       <c r="B26" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -5321,13 +7288,16 @@
       <c r="Z26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>38</v>
       </c>
       <c r="B27" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -5392,13 +7362,16 @@
       <c r="Z27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>20</v>
       </c>
       <c r="B28" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -5463,13 +7436,16 @@
       <c r="Z28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>10</v>
       </c>
       <c r="B29" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -5531,13 +7507,16 @@
       <c r="Z29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>136</v>
       </c>
       <c r="B30" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -5599,13 +7578,16 @@
       <c r="Z30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>72</v>
       </c>
       <c r="B31" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -5667,13 +7649,16 @@
       <c r="Z31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>72</v>
       </c>
       <c r="B32" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D32">
         <v>1</v>
@@ -5735,13 +7720,16 @@
       <c r="Z32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>137</v>
       </c>
       <c r="B33" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -5803,13 +7791,16 @@
       <c r="Z33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>137</v>
       </c>
       <c r="B34" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D34">
         <v>1</v>
@@ -5871,13 +7862,16 @@
       <c r="Z34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>138</v>
       </c>
       <c r="B35" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -5942,13 +7936,16 @@
       <c r="Z35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>84</v>
       </c>
       <c r="B36" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -6010,13 +8007,16 @@
       <c r="Z36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>76</v>
       </c>
       <c r="B37" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -6081,13 +8081,16 @@
       <c r="Z37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>80</v>
       </c>
       <c r="B38" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -6149,13 +8152,16 @@
       <c r="Z38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>109</v>
       </c>
       <c r="B39" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -6217,13 +8223,16 @@
       <c r="Z39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>16</v>
       </c>
       <c r="B40" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E40">
         <v>1</v>
@@ -6282,13 +8291,16 @@
       <c r="Z40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>4</v>
       </c>
       <c r="B41" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E41">
         <v>1</v>
@@ -6347,13 +8359,16 @@
       <c r="Z41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>27</v>
       </c>
       <c r="B42" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E42">
         <v>1</v>
@@ -6412,13 +8427,16 @@
       <c r="Z42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>34</v>
       </c>
       <c r="B43" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E43">
         <v>1</v>
@@ -6477,13 +8495,16 @@
       <c r="Z43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>8</v>
       </c>
       <c r="B44" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E44">
         <v>1</v>
@@ -6542,13 +8563,16 @@
       <c r="Z44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>5</v>
       </c>
       <c r="B45" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E45">
         <v>1</v>
@@ -6607,13 +8631,16 @@
       <c r="Z45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>13</v>
       </c>
       <c r="B46" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E46">
         <v>1</v>
@@ -6672,13 +8699,16 @@
       <c r="Z46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>55</v>
       </c>
       <c r="B47" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E47">
         <v>1</v>
@@ -6737,13 +8767,16 @@
       <c r="Z47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>52</v>
       </c>
       <c r="B48" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E48">
         <v>1</v>
@@ -6802,13 +8835,16 @@
       <c r="Z48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>59</v>
       </c>
       <c r="B49" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E49">
         <v>1</v>
@@ -6867,13 +8903,16 @@
       <c r="Z49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>6</v>
       </c>
       <c r="B50" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E50">
         <v>1</v>
@@ -6932,13 +8971,16 @@
       <c r="Z50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>9</v>
       </c>
       <c r="B51" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E51">
         <v>1</v>
@@ -6997,13 +9039,16 @@
       <c r="Z51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>38</v>
       </c>
       <c r="B52" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E52">
         <v>1</v>
@@ -7062,13 +9107,16 @@
       <c r="Z52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>20</v>
       </c>
       <c r="B53" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E53">
         <v>1</v>
@@ -7127,13 +9175,16 @@
       <c r="Z53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>10</v>
       </c>
       <c r="B54" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E54">
         <v>1</v>
@@ -7192,13 +9243,16 @@
       <c r="Z54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>136</v>
       </c>
       <c r="B55" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E55">
         <v>1</v>
@@ -7257,13 +9311,16 @@
       <c r="Z55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>72</v>
       </c>
       <c r="B56" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E56">
         <v>1</v>
@@ -7322,13 +9379,16 @@
       <c r="Z56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>137</v>
       </c>
       <c r="B57" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E57">
         <v>1</v>
@@ -7387,13 +9447,16 @@
       <c r="Z57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>138</v>
       </c>
       <c r="B58" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E58">
         <v>1</v>
@@ -7452,13 +9515,16 @@
       <c r="Z58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>84</v>
       </c>
       <c r="B59" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E59">
         <v>1</v>
@@ -7517,13 +9583,16 @@
       <c r="Z59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>76</v>
       </c>
       <c r="B60" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E60">
         <v>1</v>
@@ -7582,13 +9651,16 @@
       <c r="Z60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>80</v>
       </c>
       <c r="B61" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E61">
         <v>1</v>
@@ -7647,13 +9719,16 @@
       <c r="Z61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>109</v>
       </c>
       <c r="B62" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E62">
         <v>1</v>
@@ -7712,13 +9787,16 @@
       <c r="Z62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>4</v>
       </c>
       <c r="B63" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H63">
         <v>1</v>
@@ -7777,13 +9855,16 @@
       <c r="Z63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>34</v>
       </c>
       <c r="B64" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H64">
         <v>1</v>
@@ -7842,13 +9923,16 @@
       <c r="Z64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>13</v>
       </c>
       <c r="B65" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H65">
         <v>1</v>
@@ -7907,13 +9991,16 @@
       <c r="Z65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>55</v>
       </c>
       <c r="B66" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H66">
         <v>1</v>
@@ -7972,13 +10059,16 @@
       <c r="Z66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>52</v>
       </c>
       <c r="B67" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H67">
         <v>1</v>
@@ -8037,13 +10127,16 @@
       <c r="Z67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>59</v>
       </c>
       <c r="B68" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H68">
         <v>1</v>
@@ -8102,13 +10195,16 @@
       <c r="Z68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>38</v>
       </c>
       <c r="B69" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H69">
         <v>1</v>
@@ -8167,13 +10263,16 @@
       <c r="Z69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>20</v>
       </c>
       <c r="B70" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H70">
         <v>1</v>
@@ -8232,13 +10331,16 @@
       <c r="Z70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>138</v>
       </c>
       <c r="B71" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H71">
         <v>1</v>
@@ -8297,13 +10399,16 @@
       <c r="Z71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>76</v>
       </c>
       <c r="B72" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H72">
         <v>1</v>
@@ -8362,13 +10467,16 @@
       <c r="Z72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>80</v>
       </c>
       <c r="B73" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H73">
         <v>1</v>
@@ -8427,13 +10535,16 @@
       <c r="Z73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>109</v>
       </c>
       <c r="B74" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H74">
         <v>1</v>
@@ -8490,6 +10601,9 @@
         <v>0</v>
       </c>
       <c r="Z74">
+        <v>0</v>
+      </c>
+      <c r="AA74">
         <v>0</v>
       </c>
     </row>
@@ -8499,12 +10613,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:U21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="R1" sqref="R1:R1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8514,7 +10628,7 @@
     <col min="15" max="15" width="6.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>103</v>
       </c>
@@ -8567,16 +10681,19 @@
         <v>86</v>
       </c>
       <c r="R1" t="s">
+        <v>160</v>
+      </c>
+      <c r="S1" t="s">
         <v>87</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>88</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>59</v>
       </c>
@@ -8637,8 +10754,11 @@
       <c r="T2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>104</v>
       </c>
@@ -8699,8 +10819,11 @@
       <c r="T3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>105</v>
       </c>
@@ -8761,8 +10884,11 @@
       <c r="T4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>106</v>
       </c>
@@ -8823,8 +10949,11 @@
       <c r="T5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>107</v>
       </c>
@@ -8885,8 +11014,11 @@
       <c r="T6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>108</v>
       </c>
@@ -8947,8 +11079,11 @@
       <c r="T7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>109</v>
       </c>
@@ -9009,8 +11144,11 @@
       <c r="T8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>110</v>
       </c>
@@ -9071,8 +11209,11 @@
       <c r="T9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>111</v>
       </c>
@@ -9133,8 +11274,11 @@
       <c r="T10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>112</v>
       </c>
@@ -9195,8 +11339,11 @@
       <c r="T11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>113</v>
       </c>
@@ -9257,10 +11404,13 @@
       <c r="T12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
@@ -9319,8 +11469,11 @@
       <c r="T13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>114</v>
       </c>
@@ -9381,8 +11534,11 @@
       <c r="T14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>115</v>
       </c>
@@ -9443,10 +11599,13 @@
       <c r="T15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B16" t="s">
         <v>4</v>
@@ -9505,8 +11664,11 @@
       <c r="T16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>116</v>
       </c>
@@ -9567,17 +11729,20 @@
       <c r="T17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
     </row>
   </sheetData>
@@ -9586,17 +11751,1155 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:U21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q17" sqref="Q17"/>
+      <selection activeCell="R1" sqref="R1:R1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="13" max="13" width="7.7109375" customWidth="1"/>
+    <col min="14" max="14" width="6.5703125" customWidth="1"/>
+    <col min="15" max="15" width="6.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1" t="s">
+        <v>129</v>
+      </c>
+      <c r="M1" t="s">
+        <v>130</v>
+      </c>
+      <c r="N1" t="s">
+        <v>131</v>
+      </c>
+      <c r="O1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>86</v>
+      </c>
+      <c r="R1" t="s">
+        <v>160</v>
+      </c>
+      <c r="S1" t="s">
+        <v>87</v>
+      </c>
+      <c r="T1" t="s">
+        <v>88</v>
+      </c>
+      <c r="U1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>-1</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>-1</v>
+      </c>
+      <c r="D4">
+        <v>-1</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>-1</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>-1</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>107</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>108</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>-1</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>109</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>110</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>-1</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>111</v>
+      </c>
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>-1</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>112</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>-2</v>
+      </c>
+      <c r="E11">
+        <v>-1</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>113</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12">
+        <v>-1</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>-1</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>154</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13">
+        <v>-1</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>-1</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>114</v>
+      </c>
+      <c r="B14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>115</v>
+      </c>
+      <c r="B15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>-1</v>
+      </c>
+      <c r="E15">
+        <v>-1</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>155</v>
+      </c>
+      <c r="B16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>-1</v>
+      </c>
+      <c r="E16">
+        <v>-1</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>116</v>
+      </c>
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R1" sqref="R1:R1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>124</v>
       </c>
@@ -9649,16 +12952,19 @@
         <v>86</v>
       </c>
       <c r="R1" t="s">
+        <v>160</v>
+      </c>
+      <c r="S1" t="s">
         <v>87</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>88</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -9719,8 +13025,11 @@
       <c r="T2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>121</v>
       </c>
@@ -9781,8 +13090,11 @@
       <c r="T3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>122</v>
       </c>
@@ -9843,8 +13155,11 @@
       <c r="T4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>123</v>
       </c>
@@ -9905,8 +13220,11 @@
       <c r="T5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>119</v>
       </c>
@@ -9967,8 +13285,11 @@
       <c r="T6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>120</v>
       </c>
@@ -10028,6 +13349,480 @@
       </c>
       <c r="T7">
         <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P16" sqref="P16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1" t="s">
+        <v>129</v>
+      </c>
+      <c r="M1" t="s">
+        <v>130</v>
+      </c>
+      <c r="N1" t="s">
+        <v>131</v>
+      </c>
+      <c r="O1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>86</v>
+      </c>
+      <c r="R1" t="s">
+        <v>160</v>
+      </c>
+      <c r="S1" t="s">
+        <v>87</v>
+      </c>
+      <c r="T1" t="s">
+        <v>88</v>
+      </c>
+      <c r="U1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>119</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>120</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/resources.xlsx
+++ b/resources.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="13650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="13650" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="atoms" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="163">
   <si>
     <t>FullName</t>
   </si>
@@ -512,6 +512,9 @@
   </si>
   <si>
     <t>Deuteron</t>
+  </si>
+  <si>
+    <t>a+1</t>
   </si>
 </sst>
 </file>
@@ -1321,7 +1324,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
@@ -10615,10 +10618,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U21"/>
+  <dimension ref="A1:U22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R1" sqref="R1:R1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10890,22 +10893,22 @@
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>106</v>
+        <v>162</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>-1</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -10955,7 +10958,7 @@
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
@@ -10964,10 +10967,10 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11020,22 +11023,22 @@
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -11085,22 +11088,22 @@
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -11150,7 +11153,7 @@
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B9" t="s">
         <v>4</v>
@@ -11159,7 +11162,7 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -11215,7 +11218,7 @@
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B10" t="s">
         <v>4</v>
@@ -11227,7 +11230,7 @@
         <v>-1</v>
       </c>
       <c r="E10">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -11280,7 +11283,7 @@
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B11" t="s">
         <v>4</v>
@@ -11289,7 +11292,7 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="E11">
         <v>-1</v>
@@ -11345,22 +11348,22 @@
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>-2</v>
+      </c>
+      <c r="E12">
         <v>-1</v>
       </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
       <c r="F12">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -11410,7 +11413,7 @@
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>154</v>
+        <v>113</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
@@ -11475,13 +11478,13 @@
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>114</v>
+        <v>154</v>
       </c>
       <c r="B14" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -11490,7 +11493,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -11540,7 +11543,7 @@
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B15" t="s">
         <v>4</v>
@@ -11549,10 +11552,10 @@
         <v>0</v>
       </c>
       <c r="D15">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -11605,7 +11608,7 @@
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>155</v>
+        <v>115</v>
       </c>
       <c r="B16" t="s">
         <v>4</v>
@@ -11670,71 +11673,133 @@
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>155</v>
+      </c>
+      <c r="B17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>-1</v>
+      </c>
+      <c r="E17">
+        <v>-1</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>116</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" t="s">
         <v>6</v>
       </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
-      <c r="N17">
-        <v>0</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>0</v>
-      </c>
-      <c r="R17">
-        <v>0</v>
-      </c>
-      <c r="S17">
-        <v>0</v>
-      </c>
-      <c r="T17">
-        <v>0</v>
-      </c>
-      <c r="U17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
@@ -11744,6 +11809,9 @@
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/resources.xlsx
+++ b/resources.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="13650" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="13650" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="atoms" sheetId="2" r:id="rId1"/>
@@ -5384,9 +5384,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA74"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X8" sqref="X8"/>
+      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10620,7 +10620,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>

--- a/resources.xlsx
+++ b/resources.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="163">
   <si>
     <t>FullName</t>
   </si>
@@ -6414,9 +6414,6 @@
       <c r="A15" t="s">
         <v>4</v>
       </c>
-      <c r="B15" t="s">
-        <v>158</v>
-      </c>
       <c r="C15">
         <v>1</v>
       </c>
@@ -6488,9 +6485,6 @@
       <c r="A16" t="s">
         <v>27</v>
       </c>
-      <c r="B16" t="s">
-        <v>158</v>
-      </c>
       <c r="C16">
         <v>1</v>
       </c>
@@ -6562,9 +6556,6 @@
       <c r="A17" t="s">
         <v>34</v>
       </c>
-      <c r="B17" t="s">
-        <v>158</v>
-      </c>
       <c r="C17">
         <v>1</v>
       </c>
@@ -6636,9 +6627,6 @@
       <c r="A18" t="s">
         <v>8</v>
       </c>
-      <c r="B18" t="s">
-        <v>158</v>
-      </c>
       <c r="C18">
         <v>1</v>
       </c>
@@ -6710,9 +6698,6 @@
       <c r="A19" t="s">
         <v>5</v>
       </c>
-      <c r="B19" t="s">
-        <v>158</v>
-      </c>
       <c r="C19">
         <v>1</v>
       </c>
@@ -6784,9 +6769,6 @@
       <c r="A20" t="s">
         <v>13</v>
       </c>
-      <c r="B20" t="s">
-        <v>158</v>
-      </c>
       <c r="C20">
         <v>1</v>
       </c>
@@ -6858,9 +6840,6 @@
       <c r="A21" t="s">
         <v>13</v>
       </c>
-      <c r="B21" t="s">
-        <v>158</v>
-      </c>
       <c r="D21">
         <v>1</v>
       </c>
@@ -6932,9 +6911,6 @@
       <c r="A22" t="s">
         <v>55</v>
       </c>
-      <c r="B22" t="s">
-        <v>158</v>
-      </c>
       <c r="C22">
         <v>1</v>
       </c>
@@ -7006,9 +6982,6 @@
       <c r="A23" t="s">
         <v>52</v>
       </c>
-      <c r="B23" t="s">
-        <v>158</v>
-      </c>
       <c r="C23">
         <v>1</v>
       </c>
@@ -7080,9 +7053,6 @@
       <c r="A24" t="s">
         <v>59</v>
       </c>
-      <c r="B24" t="s">
-        <v>158</v>
-      </c>
       <c r="C24">
         <v>1</v>
       </c>
@@ -7154,9 +7124,6 @@
       <c r="A25" t="s">
         <v>6</v>
       </c>
-      <c r="B25" t="s">
-        <v>158</v>
-      </c>
       <c r="C25">
         <v>1</v>
       </c>
@@ -7228,9 +7195,6 @@
       <c r="A26" t="s">
         <v>9</v>
       </c>
-      <c r="B26" t="s">
-        <v>158</v>
-      </c>
       <c r="C26">
         <v>1</v>
       </c>
@@ -7299,9 +7263,6 @@
       <c r="A27" t="s">
         <v>38</v>
       </c>
-      <c r="B27" t="s">
-        <v>158</v>
-      </c>
       <c r="C27">
         <v>1</v>
       </c>
@@ -7373,9 +7334,6 @@
       <c r="A28" t="s">
         <v>20</v>
       </c>
-      <c r="B28" t="s">
-        <v>158</v>
-      </c>
       <c r="C28">
         <v>1</v>
       </c>
@@ -7447,9 +7405,6 @@
       <c r="A29" t="s">
         <v>10</v>
       </c>
-      <c r="B29" t="s">
-        <v>158</v>
-      </c>
       <c r="C29">
         <v>1</v>
       </c>
@@ -7518,9 +7473,6 @@
       <c r="A30" t="s">
         <v>136</v>
       </c>
-      <c r="B30" t="s">
-        <v>158</v>
-      </c>
       <c r="C30">
         <v>1</v>
       </c>
@@ -7589,9 +7541,6 @@
       <c r="A31" t="s">
         <v>72</v>
       </c>
-      <c r="B31" t="s">
-        <v>158</v>
-      </c>
       <c r="C31">
         <v>1</v>
       </c>
@@ -7660,9 +7609,6 @@
       <c r="A32" t="s">
         <v>72</v>
       </c>
-      <c r="B32" t="s">
-        <v>158</v>
-      </c>
       <c r="D32">
         <v>1</v>
       </c>
@@ -7731,9 +7677,6 @@
       <c r="A33" t="s">
         <v>137</v>
       </c>
-      <c r="B33" t="s">
-        <v>158</v>
-      </c>
       <c r="C33">
         <v>1</v>
       </c>
@@ -7802,9 +7745,6 @@
       <c r="A34" t="s">
         <v>137</v>
       </c>
-      <c r="B34" t="s">
-        <v>158</v>
-      </c>
       <c r="D34">
         <v>1</v>
       </c>
@@ -7873,9 +7813,6 @@
       <c r="A35" t="s">
         <v>138</v>
       </c>
-      <c r="B35" t="s">
-        <v>158</v>
-      </c>
       <c r="C35">
         <v>1</v>
       </c>
@@ -7947,9 +7884,6 @@
       <c r="A36" t="s">
         <v>84</v>
       </c>
-      <c r="B36" t="s">
-        <v>158</v>
-      </c>
       <c r="C36">
         <v>1</v>
       </c>
@@ -8018,9 +7952,6 @@
       <c r="A37" t="s">
         <v>76</v>
       </c>
-      <c r="B37" t="s">
-        <v>158</v>
-      </c>
       <c r="C37">
         <v>1</v>
       </c>
@@ -8092,9 +8023,6 @@
       <c r="A38" t="s">
         <v>80</v>
       </c>
-      <c r="B38" t="s">
-        <v>158</v>
-      </c>
       <c r="C38">
         <v>1</v>
       </c>
@@ -8163,9 +8091,6 @@
       <c r="A39" t="s">
         <v>109</v>
       </c>
-      <c r="B39" t="s">
-        <v>158</v>
-      </c>
       <c r="C39">
         <v>1</v>
       </c>
@@ -8234,9 +8159,6 @@
       <c r="A40" t="s">
         <v>16</v>
       </c>
-      <c r="B40" t="s">
-        <v>158</v>
-      </c>
       <c r="E40">
         <v>1</v>
       </c>
@@ -8302,9 +8224,6 @@
       <c r="A41" t="s">
         <v>4</v>
       </c>
-      <c r="B41" t="s">
-        <v>158</v>
-      </c>
       <c r="E41">
         <v>1</v>
       </c>
@@ -8370,9 +8289,6 @@
       <c r="A42" t="s">
         <v>27</v>
       </c>
-      <c r="B42" t="s">
-        <v>158</v>
-      </c>
       <c r="E42">
         <v>1</v>
       </c>
@@ -8438,9 +8354,6 @@
       <c r="A43" t="s">
         <v>34</v>
       </c>
-      <c r="B43" t="s">
-        <v>158</v>
-      </c>
       <c r="E43">
         <v>1</v>
       </c>
@@ -8506,9 +8419,6 @@
       <c r="A44" t="s">
         <v>8</v>
       </c>
-      <c r="B44" t="s">
-        <v>158</v>
-      </c>
       <c r="E44">
         <v>1</v>
       </c>
@@ -8574,9 +8484,6 @@
       <c r="A45" t="s">
         <v>5</v>
       </c>
-      <c r="B45" t="s">
-        <v>158</v>
-      </c>
       <c r="E45">
         <v>1</v>
       </c>
@@ -8642,9 +8549,6 @@
       <c r="A46" t="s">
         <v>13</v>
       </c>
-      <c r="B46" t="s">
-        <v>158</v>
-      </c>
       <c r="E46">
         <v>1</v>
       </c>
@@ -8710,9 +8614,6 @@
       <c r="A47" t="s">
         <v>55</v>
       </c>
-      <c r="B47" t="s">
-        <v>158</v>
-      </c>
       <c r="E47">
         <v>1</v>
       </c>
@@ -8778,9 +8679,6 @@
       <c r="A48" t="s">
         <v>52</v>
       </c>
-      <c r="B48" t="s">
-        <v>158</v>
-      </c>
       <c r="E48">
         <v>1</v>
       </c>
@@ -8846,9 +8744,6 @@
       <c r="A49" t="s">
         <v>59</v>
       </c>
-      <c r="B49" t="s">
-        <v>158</v>
-      </c>
       <c r="E49">
         <v>1</v>
       </c>
@@ -8914,9 +8809,6 @@
       <c r="A50" t="s">
         <v>6</v>
       </c>
-      <c r="B50" t="s">
-        <v>158</v>
-      </c>
       <c r="E50">
         <v>1</v>
       </c>
@@ -8982,9 +8874,6 @@
       <c r="A51" t="s">
         <v>9</v>
       </c>
-      <c r="B51" t="s">
-        <v>158</v>
-      </c>
       <c r="E51">
         <v>1</v>
       </c>
@@ -9050,9 +8939,6 @@
       <c r="A52" t="s">
         <v>38</v>
       </c>
-      <c r="B52" t="s">
-        <v>158</v>
-      </c>
       <c r="E52">
         <v>1</v>
       </c>
@@ -9118,9 +9004,6 @@
       <c r="A53" t="s">
         <v>20</v>
       </c>
-      <c r="B53" t="s">
-        <v>158</v>
-      </c>
       <c r="E53">
         <v>1</v>
       </c>
@@ -9186,9 +9069,6 @@
       <c r="A54" t="s">
         <v>10</v>
       </c>
-      <c r="B54" t="s">
-        <v>158</v>
-      </c>
       <c r="E54">
         <v>1</v>
       </c>
@@ -9254,9 +9134,6 @@
       <c r="A55" t="s">
         <v>136</v>
       </c>
-      <c r="B55" t="s">
-        <v>158</v>
-      </c>
       <c r="E55">
         <v>1</v>
       </c>
@@ -9322,9 +9199,6 @@
       <c r="A56" t="s">
         <v>72</v>
       </c>
-      <c r="B56" t="s">
-        <v>158</v>
-      </c>
       <c r="E56">
         <v>1</v>
       </c>
@@ -9390,9 +9264,6 @@
       <c r="A57" t="s">
         <v>137</v>
       </c>
-      <c r="B57" t="s">
-        <v>158</v>
-      </c>
       <c r="E57">
         <v>1</v>
       </c>
@@ -9458,9 +9329,6 @@
       <c r="A58" t="s">
         <v>138</v>
       </c>
-      <c r="B58" t="s">
-        <v>158</v>
-      </c>
       <c r="E58">
         <v>1</v>
       </c>
@@ -9526,9 +9394,6 @@
       <c r="A59" t="s">
         <v>84</v>
       </c>
-      <c r="B59" t="s">
-        <v>158</v>
-      </c>
       <c r="E59">
         <v>1</v>
       </c>
@@ -9594,9 +9459,6 @@
       <c r="A60" t="s">
         <v>76</v>
       </c>
-      <c r="B60" t="s">
-        <v>158</v>
-      </c>
       <c r="E60">
         <v>1</v>
       </c>
@@ -9662,9 +9524,6 @@
       <c r="A61" t="s">
         <v>80</v>
       </c>
-      <c r="B61" t="s">
-        <v>158</v>
-      </c>
       <c r="E61">
         <v>1</v>
       </c>
@@ -9730,9 +9589,6 @@
       <c r="A62" t="s">
         <v>109</v>
       </c>
-      <c r="B62" t="s">
-        <v>158</v>
-      </c>
       <c r="E62">
         <v>1</v>
       </c>
@@ -9798,9 +9654,6 @@
       <c r="A63" t="s">
         <v>4</v>
       </c>
-      <c r="B63" t="s">
-        <v>158</v>
-      </c>
       <c r="H63">
         <v>1</v>
       </c>
@@ -9866,9 +9719,6 @@
       <c r="A64" t="s">
         <v>34</v>
       </c>
-      <c r="B64" t="s">
-        <v>158</v>
-      </c>
       <c r="H64">
         <v>1</v>
       </c>
@@ -9934,9 +9784,6 @@
       <c r="A65" t="s">
         <v>13</v>
       </c>
-      <c r="B65" t="s">
-        <v>158</v>
-      </c>
       <c r="H65">
         <v>1</v>
       </c>
@@ -10002,9 +9849,6 @@
       <c r="A66" t="s">
         <v>55</v>
       </c>
-      <c r="B66" t="s">
-        <v>158</v>
-      </c>
       <c r="H66">
         <v>1</v>
       </c>
@@ -10070,9 +9914,6 @@
       <c r="A67" t="s">
         <v>52</v>
       </c>
-      <c r="B67" t="s">
-        <v>158</v>
-      </c>
       <c r="H67">
         <v>1</v>
       </c>
@@ -10138,9 +9979,6 @@
       <c r="A68" t="s">
         <v>59</v>
       </c>
-      <c r="B68" t="s">
-        <v>158</v>
-      </c>
       <c r="H68">
         <v>1</v>
       </c>
@@ -10206,9 +10044,6 @@
       <c r="A69" t="s">
         <v>38</v>
       </c>
-      <c r="B69" t="s">
-        <v>158</v>
-      </c>
       <c r="H69">
         <v>1</v>
       </c>
@@ -10274,9 +10109,6 @@
       <c r="A70" t="s">
         <v>20</v>
       </c>
-      <c r="B70" t="s">
-        <v>158</v>
-      </c>
       <c r="H70">
         <v>1</v>
       </c>
@@ -10342,9 +10174,6 @@
       <c r="A71" t="s">
         <v>138</v>
       </c>
-      <c r="B71" t="s">
-        <v>158</v>
-      </c>
       <c r="H71">
         <v>1</v>
       </c>
@@ -10410,9 +10239,6 @@
       <c r="A72" t="s">
         <v>76</v>
       </c>
-      <c r="B72" t="s">
-        <v>158</v>
-      </c>
       <c r="H72">
         <v>1</v>
       </c>
@@ -10478,9 +10304,6 @@
       <c r="A73" t="s">
         <v>80</v>
       </c>
-      <c r="B73" t="s">
-        <v>158</v>
-      </c>
       <c r="H73">
         <v>1</v>
       </c>
@@ -10545,9 +10368,6 @@
     <row r="74" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>109</v>
-      </c>
-      <c r="B74" t="s">
-        <v>158</v>
       </c>
       <c r="H74">
         <v>1</v>
